--- a/シリーズごとのリスト.xlsx
+++ b/シリーズごとのリスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LINEスタンプ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chie\１８.LINE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE93FBC-CD9B-4E16-AD23-D579FD334DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4035FB7-AD0E-46E3-B712-D685C01B5A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="188">
   <si>
     <t>超絶ごめんなさい</t>
   </si>
@@ -241,60 +241,6 @@
   </si>
   <si>
     <t>低気圧ですね</t>
-  </si>
-  <si>
-    <t>馬うまくいきますように</t>
-  </si>
-  <si>
-    <t>馬うまいぞ</t>
-  </si>
-  <si>
-    <t>馬御利益　御利益</t>
-  </si>
-  <si>
-    <t>馬早いぞ早いぞ</t>
-  </si>
-  <si>
-    <t>馬汗だくだく</t>
-  </si>
-  <si>
-    <t>馬風が気持ちいいな</t>
-  </si>
-  <si>
-    <t>馬走ります</t>
-  </si>
-  <si>
-    <t>馬食べたい、、、　　　（人参前にして）</t>
-  </si>
-  <si>
-    <t>馬頑張ったよ　　　　　（一等賞で）</t>
-  </si>
-  <si>
-    <t>馬歩いていくよ</t>
-  </si>
-  <si>
-    <t>馬ひーひっひ</t>
-  </si>
-  <si>
-    <t>馬話が上手い</t>
-  </si>
-  <si>
-    <t>馬ウルウル　　　　　　（瞳に涙を溜めて）</t>
-  </si>
-  <si>
-    <t>馬今年も頑張ろうね</t>
-  </si>
-  <si>
-    <t>馬素晴らしい年になったね</t>
-  </si>
-  <si>
-    <t>馬横になるわ　　　　　（横たわったイラスト）</t>
-  </si>
-  <si>
-    <t>馬綺麗でしょ</t>
-  </si>
-  <si>
-    <t>馬無言、、、</t>
   </si>
   <si>
     <t>馬やりきった</t>
@@ -703,6 +649,81 @@
       <t>コト</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うまくいきますように</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うまいぞ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>御利益　御利益</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>早いぞ早いぞ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>汗だくだく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風が気持ちいいな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走ります</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食べたい、、、　　　（人参前にして）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頑張ったよ　　　　　（一等賞で）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩いていくよ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひーひっひ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>話が上手い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウルウル　　　　　　（瞳に涙を溜めて）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今年も頑張ろうね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素晴らしい年になったね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横になるわ　　　　　（横たわったイラスト）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>綺麗でしょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無言、、、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
   </si>
 </sst>
 </file>
@@ -1258,25 +1279,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6:AA11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" customWidth="1"/>
-    <col min="3" max="13" width="10.58203125" customWidth="1"/>
+    <col min="1" max="1" width="4.6875" customWidth="1"/>
+    <col min="2" max="2" width="29.1875" customWidth="1"/>
+    <col min="3" max="13" width="10.5625" customWidth="1"/>
     <col min="21" max="21" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="22.5">
+    <row r="1" spans="1:27" ht="22.9">
       <c r="A1" s="11"/>
       <c r="B1" s="9" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -1299,74 +1323,74 @@
       <c r="V1" s="13"/>
       <c r="W1" s="13"/>
     </row>
-    <row r="2" spans="1:27" ht="30.5" thickBot="1">
+    <row r="2" spans="1:27" ht="30.4" thickBot="1">
       <c r="A2" s="12"/>
       <c r="B2" s="10"/>
       <c r="C2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" ht="15.5" thickTop="1">
+    </row>
+    <row r="3" spans="1:27" s="6" customFormat="1" ht="15.4" thickTop="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1482,7 +1506,7 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="Y6" s="14" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="Z6" s="14"/>
       <c r="AA6" s="14"/>
@@ -3479,7 +3503,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -3496,7 +3520,9 @@
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
+      <c r="R75" s="4" t="s">
+        <v>187</v>
+      </c>
       <c r="S75" s="4"/>
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
@@ -3508,7 +3534,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -3525,7 +3551,9 @@
       <c r="O76" s="4"/>
       <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
+      <c r="R76" s="4" t="s">
+        <v>187</v>
+      </c>
       <c r="S76" s="4"/>
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
@@ -3537,7 +3565,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -3554,7 +3582,9 @@
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
+      <c r="R77" s="4" t="s">
+        <v>187</v>
+      </c>
       <c r="S77" s="4"/>
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
@@ -3566,7 +3596,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -3583,7 +3613,9 @@
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
+      <c r="R78" s="4" t="s">
+        <v>187</v>
+      </c>
       <c r="S78" s="4"/>
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
@@ -3595,7 +3627,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -3612,7 +3644,9 @@
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
-      <c r="R79" s="4"/>
+      <c r="R79" s="4" t="s">
+        <v>187</v>
+      </c>
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
@@ -3624,7 +3658,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -3641,7 +3675,9 @@
       <c r="O80" s="4"/>
       <c r="P80" s="4"/>
       <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
+      <c r="R80" s="4" t="s">
+        <v>187</v>
+      </c>
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
@@ -3653,7 +3689,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -3670,7 +3706,9 @@
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
       <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
+      <c r="R81" s="4" t="s">
+        <v>187</v>
+      </c>
       <c r="S81" s="4"/>
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
@@ -3682,7 +3720,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -3699,7 +3737,9 @@
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
+      <c r="R82" s="4" t="s">
+        <v>187</v>
+      </c>
       <c r="S82" s="4"/>
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
@@ -3711,7 +3751,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -3728,7 +3768,9 @@
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
-      <c r="R83" s="4"/>
+      <c r="R83" s="4" t="s">
+        <v>187</v>
+      </c>
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
@@ -3740,7 +3782,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -3769,7 +3811,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -3798,7 +3840,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -3822,12 +3864,12 @@
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
     </row>
-    <row r="87" spans="1:23" s="6" customFormat="1" ht="30">
+    <row r="87" spans="1:23" s="6" customFormat="1" ht="15">
       <c r="A87" s="7">
         <v>85</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -3856,7 +3898,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -3885,7 +3927,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -3914,7 +3956,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -3943,7 +3985,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -3972,7 +4014,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -4001,7 +4043,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -4030,7 +4072,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -4059,7 +4101,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -4088,7 +4130,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -4117,7 +4159,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -4175,7 +4217,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -4204,7 +4246,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -4233,7 +4275,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -4262,7 +4304,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -4291,7 +4333,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -4320,7 +4362,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -4349,7 +4391,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -4378,7 +4420,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -4407,7 +4449,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -4436,7 +4478,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -4465,7 +4507,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -4494,7 +4536,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -4523,7 +4565,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -4552,7 +4594,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -4610,7 +4652,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -4639,7 +4681,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -4668,7 +4710,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -4697,7 +4739,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -4726,7 +4768,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -4755,7 +4797,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -4784,7 +4826,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -4813,7 +4855,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -4842,7 +4884,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -4871,7 +4913,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -4900,7 +4942,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
@@ -4929,7 +4971,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
@@ -4958,7 +5000,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -4987,7 +5029,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -5016,7 +5058,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -5045,7 +5087,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -5074,7 +5116,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -5103,7 +5145,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
@@ -5132,7 +5174,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
@@ -5161,7 +5203,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
@@ -5190,7 +5232,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
@@ -5219,7 +5261,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -5248,7 +5290,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
@@ -5277,7 +5319,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
@@ -5306,7 +5348,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -5335,7 +5377,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -5364,7 +5406,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -5393,7 +5435,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -5422,7 +5464,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -5451,7 +5493,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -5480,7 +5522,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
@@ -5509,7 +5551,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -5538,7 +5580,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -5567,7 +5609,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -5596,7 +5638,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
@@ -5625,7 +5667,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -5654,7 +5696,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
@@ -5683,7 +5725,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
@@ -5712,7 +5754,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
@@ -5741,7 +5783,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
@@ -5770,7 +5812,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
@@ -5799,7 +5841,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
@@ -5828,7 +5870,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
@@ -5857,7 +5899,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
@@ -5886,7 +5928,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
@@ -5915,7 +5957,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
@@ -5944,7 +5986,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
@@ -5973,7 +6015,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
@@ -6002,7 +6044,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
@@ -6031,7 +6073,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
@@ -6060,7 +6102,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
@@ -6089,7 +6131,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
@@ -6118,7 +6160,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
@@ -6147,7 +6189,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>

--- a/シリーズごとのリスト.xlsx
+++ b/シリーズごとのリスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chie\１８.LINE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LINEスタンプ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4035FB7-AD0E-46E3-B712-D685C01B5A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2082D096-85FD-43D4-B1D2-2D62D5342421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="187">
   <si>
     <t>超絶ごめんなさい</t>
   </si>
@@ -628,25 +628,6 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※鯛は（おめでたい、いいたい、うたいたい、ききたい、あいたい、しりたい、ありがたい、よみたい等様々な文句をつける事ができる）</t>
-    <rPh sb="1" eb="2">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>サマザマ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>モンク</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>コト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -910,7 +891,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -927,91 +908,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="吹き出し: 四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C698C4F9-79EE-7450-5274-E57B0BCD9F79}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19786600" y="361950"/>
-          <a:ext cx="1212850" cy="755650"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -116645"/>
-            <a:gd name="adj2" fmla="val -24055"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>鯛から右側は未だシリーズに追加していない分</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1280,21 +1176,21 @@
   <dimension ref="A1:AA167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomRight" activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.6875" customWidth="1"/>
-    <col min="2" max="2" width="29.1875" customWidth="1"/>
-    <col min="3" max="13" width="10.5625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" customWidth="1"/>
+    <col min="3" max="13" width="10.58203125" customWidth="1"/>
     <col min="21" max="21" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="22.9">
+    <row r="1" spans="1:27" ht="22.5">
       <c r="A1" s="11"/>
       <c r="B1" s="9" t="s">
         <v>146</v>
@@ -1323,7 +1219,7 @@
       <c r="V1" s="13"/>
       <c r="W1" s="13"/>
     </row>
-    <row r="2" spans="1:27" ht="30.4" thickBot="1">
+    <row r="2" spans="1:27" ht="30.5" thickBot="1">
       <c r="A2" s="12"/>
       <c r="B2" s="10"/>
       <c r="C2" s="2" t="s">
@@ -1390,7 +1286,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" ht="15.4" thickTop="1">
+    <row r="3" spans="1:27" s="6" customFormat="1" ht="15.5" thickTop="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1505,9 +1401,7 @@
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
-      <c r="Y6" s="14" t="s">
-        <v>168</v>
-      </c>
+      <c r="Y6" s="14"/>
       <c r="Z6" s="14"/>
       <c r="AA6" s="14"/>
     </row>
@@ -3503,7 +3397,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -3521,7 +3415,7 @@
       <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
       <c r="R75" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S75" s="4"/>
       <c r="T75" s="4"/>
@@ -3534,7 +3428,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -3552,7 +3446,7 @@
       <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
       <c r="R76" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S76" s="4"/>
       <c r="T76" s="4"/>
@@ -3565,7 +3459,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -3583,7 +3477,7 @@
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
       <c r="R77" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S77" s="4"/>
       <c r="T77" s="4"/>
@@ -3596,7 +3490,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -3614,7 +3508,7 @@
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
       <c r="R78" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S78" s="4"/>
       <c r="T78" s="4"/>
@@ -3627,7 +3521,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -3645,7 +3539,7 @@
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
       <c r="R79" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
@@ -3658,7 +3552,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -3676,7 +3570,7 @@
       <c r="P80" s="4"/>
       <c r="Q80" s="4"/>
       <c r="R80" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
@@ -3689,7 +3583,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -3707,7 +3601,7 @@
       <c r="P81" s="4"/>
       <c r="Q81" s="4"/>
       <c r="R81" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S81" s="4"/>
       <c r="T81" s="4"/>
@@ -3720,7 +3614,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -3738,7 +3632,7 @@
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
       <c r="R82" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S82" s="4"/>
       <c r="T82" s="4"/>
@@ -3751,7 +3645,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -3769,7 +3663,7 @@
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
       <c r="R83" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
@@ -3782,7 +3676,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -3811,7 +3705,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -3840,7 +3734,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -3869,7 +3763,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -3898,7 +3792,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -3927,7 +3821,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -3956,7 +3850,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -3985,7 +3879,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -4014,7 +3908,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -6214,11 +6108,10 @@
       <c r="W167" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:W1"/>
-    <mergeCell ref="Y6:AA11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -6227,6 +6120,5 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/シリーズごとのリスト.xlsx
+++ b/シリーズごとのリスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LINEスタンプ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chie\１８.LINE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE01C9FB-3775-4AA8-9111-BB20810DCADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE842D2-0BF0-4B9B-B7D6-81FFA5FC9824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,40 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="2">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="2">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="231">
   <si>
     <t>超絶ごめんなさい</t>
   </si>
@@ -724,7 +756,282 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>し楽しんでる？</t>
+    <t>おはよう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おつかれ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おやすみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今向かってる</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あとで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どうする？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嬉しい</t>
+    <rPh sb="0" eb="1">
+      <t>ウレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドン引き</t>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>困った</t>
+    <rPh sb="0" eb="1">
+      <t>コマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>笑</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいなぁ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寝てた</t>
+    <rPh sb="0" eb="1">
+      <t>ネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>楽しんでる？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただいまパソコン使用中</t>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただいま出張中</t>
+    <rPh sb="4" eb="7">
+      <t>シュッチョウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今帰宅中</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>キタクチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今通勤中</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>ツウキンチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外回り中です</t>
+    <rPh sb="0" eb="2">
+      <t>ソトマワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZOOM会議中</t>
+    <rPh sb="4" eb="7">
+      <t>カイギチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>痩せたい</t>
+    <rPh sb="0" eb="1">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会いたい</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>話したい</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見たい</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>聞きたい</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読みたい</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ありがたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おめでたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歌いたい</t>
+    <rPh sb="0" eb="1">
+      <t>ウタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>眠たい</t>
+    <rPh sb="0" eb="1">
+      <t>ネム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休みたい</t>
+    <rPh sb="0" eb="1">
+      <t>ヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆっくりしたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>考えたい</t>
+    <rPh sb="0" eb="1">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座りたい</t>
+    <rPh sb="0" eb="1">
+      <t>スワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>働きたい</t>
+    <rPh sb="0" eb="1">
+      <t>ハタラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩したい</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>挑戦したい</t>
+    <rPh sb="0" eb="2">
+      <t>チョウセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旅したい</t>
+    <rPh sb="0" eb="1">
+      <t>タビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参加したい</t>
+    <rPh sb="0" eb="2">
+      <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運動したい</t>
+    <rPh sb="0" eb="2">
+      <t>ウンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>応援したい</t>
+    <rPh sb="0" eb="2">
+      <t>オウエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>守りたい</t>
+    <rPh sb="0" eb="1">
+      <t>マモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手伝いたい</t>
+    <rPh sb="0" eb="2">
+      <t>テツダ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -801,7 +1108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -814,8 +1121,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -866,11 +1191,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -879,9 +1217,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -911,7 +1246,28 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -929,6 +1285,75 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1194,155 +1619,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA172"/>
+  <dimension ref="A1:AA230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C145" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C166" sqref="C166"/>
+      <selection pane="bottomRight" activeCell="F159" sqref="F159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" customWidth="1"/>
-    <col min="3" max="13" width="10.58203125" customWidth="1"/>
+    <col min="1" max="1" width="4.6875" customWidth="1"/>
+    <col min="2" max="2" width="29.1875" customWidth="1"/>
+    <col min="3" max="13" width="10.5625" customWidth="1"/>
     <col min="21" max="21" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="22.5">
-      <c r="A1" s="11"/>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:27" ht="22.9">
+      <c r="A1" s="10"/>
+      <c r="B1" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-    </row>
-    <row r="2" spans="1:27" ht="18.5" thickBot="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="2" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+    </row>
+    <row r="2" spans="1:27" ht="22.9">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S2" s="15" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+    </row>
+    <row r="3" spans="1:27" ht="18" thickBot="1">
+      <c r="A3" s="11"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="W2" s="2"/>
-    </row>
-    <row r="3" spans="1:27" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1">
-      <c r="A3" s="3">
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:27" s="4" customFormat="1" ht="15" customHeight="1" thickTop="1">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-    </row>
-    <row r="4" spans="1:27" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>1</v>
-      </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1363,15 +1788,17 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" spans="1:27" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:27" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
+      <c r="B5" s="16" t="s">
+        <v>1</v>
+      </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1392,12 +1819,12 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:27" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:27" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="5">
         <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1420,16 +1847,13 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-    </row>
-    <row r="7" spans="1:27" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="6">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7" t="s">
+    </row>
+    <row r="7" spans="1:27" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="5">
         <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1452,16 +1876,16 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-    </row>
-    <row r="8" spans="1:27" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+    </row>
+    <row r="8" spans="1:27" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="5">
         <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1484,16 +1908,16 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-    </row>
-    <row r="9" spans="1:27" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="6">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+    </row>
+    <row r="9" spans="1:27" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="5">
         <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1516,16 +1940,16 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-    </row>
-    <row r="10" spans="1:27" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="6">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="5">
         <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1548,16 +1972,16 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-    </row>
-    <row r="11" spans="1:27" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="6">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+    </row>
+    <row r="11" spans="1:27" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="5">
         <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1580,16 +2004,16 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-    </row>
-    <row r="12" spans="1:27" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="6">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+    </row>
+    <row r="12" spans="1:27" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="5">
         <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1612,13 +2036,16 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-    </row>
-    <row r="13" spans="1:27" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="6">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+    </row>
+    <row r="13" spans="1:27" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="5">
         <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1642,12 +2069,12 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" spans="1:27" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="6">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7" t="s">
+    <row r="14" spans="1:27" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="5">
         <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1671,12 +2098,12 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="1:27" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="6">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7" t="s">
+    <row r="15" spans="1:27" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="5">
         <v>12</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1700,12 +2127,12 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" spans="1:27" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="6">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7" t="s">
+    <row r="16" spans="1:27" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="5">
         <v>13</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1729,12 +2156,12 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="6">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7" t="s">
+    <row r="17" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="5">
         <v>14</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1758,12 +2185,12 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="6">
-        <v>16</v>
-      </c>
-      <c r="B18" s="7" t="s">
+    <row r="18" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="5">
         <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1787,12 +2214,12 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
     </row>
-    <row r="19" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="6">
-        <v>17</v>
-      </c>
-      <c r="B19" s="7" t="s">
+    <row r="19" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="5">
         <v>16</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1816,12 +2243,12 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
     </row>
-    <row r="20" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="6">
-        <v>18</v>
-      </c>
-      <c r="B20" s="7" t="s">
+    <row r="20" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="5">
         <v>17</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1845,12 +2272,12 @@
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
     </row>
-    <row r="21" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="6">
-        <v>19</v>
-      </c>
-      <c r="B21" s="7" t="s">
+    <row r="21" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="5">
         <v>18</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1874,12 +2301,12 @@
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
     </row>
-    <row r="22" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="6">
-        <v>20</v>
-      </c>
-      <c r="B22" s="7" t="s">
+    <row r="22" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="5">
         <v>19</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1903,12 +2330,12 @@
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
     </row>
-    <row r="23" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="6">
-        <v>21</v>
-      </c>
-      <c r="B23" s="7" t="s">
+    <row r="23" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="5">
         <v>20</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1932,12 +2359,12 @@
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
     </row>
-    <row r="24" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="6">
-        <v>22</v>
-      </c>
-      <c r="B24" s="7" t="s">
+    <row r="24" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A24" s="5">
         <v>21</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1961,12 +2388,12 @@
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
     </row>
-    <row r="25" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="6">
-        <v>23</v>
-      </c>
-      <c r="B25" s="7" t="s">
+    <row r="25" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="5">
         <v>22</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1990,12 +2417,12 @@
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
     </row>
-    <row r="26" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="6">
-        <v>24</v>
-      </c>
-      <c r="B26" s="7" t="s">
+    <row r="26" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A26" s="5">
         <v>23</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -2019,12 +2446,12 @@
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
     </row>
-    <row r="27" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="6">
-        <v>25</v>
-      </c>
-      <c r="B27" s="7" t="s">
+    <row r="27" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A27" s="5">
         <v>24</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2048,12 +2475,12 @@
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
     </row>
-    <row r="28" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="6">
-        <v>26</v>
-      </c>
-      <c r="B28" s="7" t="s">
+    <row r="28" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A28" s="5">
         <v>25</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2077,12 +2504,12 @@
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
     </row>
-    <row r="29" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="6">
-        <v>27</v>
-      </c>
-      <c r="B29" s="7" t="s">
+    <row r="29" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A29" s="5">
         <v>26</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -2106,12 +2533,12 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
     </row>
-    <row r="30" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="6">
-        <v>28</v>
-      </c>
-      <c r="B30" s="7" t="s">
+    <row r="30" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="5">
         <v>27</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -2135,12 +2562,12 @@
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
     </row>
-    <row r="31" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="6">
-        <v>29</v>
-      </c>
-      <c r="B31" s="7" t="s">
+    <row r="31" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A31" s="5">
         <v>28</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -2164,12 +2591,12 @@
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
     </row>
-    <row r="32" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="6">
-        <v>30</v>
-      </c>
-      <c r="B32" s="7" t="s">
+    <row r="32" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A32" s="5">
         <v>29</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2193,12 +2620,12 @@
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
     </row>
-    <row r="33" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="6">
-        <v>31</v>
-      </c>
-      <c r="B33" s="7" t="s">
+    <row r="33" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A33" s="5">
         <v>30</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -2222,12 +2649,12 @@
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
     </row>
-    <row r="34" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="6">
-        <v>32</v>
-      </c>
-      <c r="B34" s="7" t="s">
+    <row r="34" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A34" s="5">
         <v>31</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -2251,12 +2678,12 @@
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
     </row>
-    <row r="35" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="6">
-        <v>33</v>
-      </c>
-      <c r="B35" s="7" t="s">
+    <row r="35" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A35" s="5">
         <v>32</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2280,12 +2707,12 @@
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
     </row>
-    <row r="36" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="6">
-        <v>34</v>
-      </c>
-      <c r="B36" s="7" t="s">
+    <row r="36" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A36" s="5">
         <v>33</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2309,12 +2736,12 @@
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
     </row>
-    <row r="37" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="6">
-        <v>35</v>
-      </c>
-      <c r="B37" s="7" t="s">
+    <row r="37" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A37" s="5">
         <v>34</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2338,12 +2765,12 @@
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
     </row>
-    <row r="38" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="6">
-        <v>36</v>
-      </c>
-      <c r="B38" s="7" t="s">
+    <row r="38" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A38" s="5">
         <v>35</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2367,12 +2794,12 @@
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
     </row>
-    <row r="39" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="6">
-        <v>37</v>
-      </c>
-      <c r="B39" s="7" t="s">
+    <row r="39" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A39" s="5">
         <v>36</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -2396,12 +2823,12 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
     </row>
-    <row r="40" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="6">
-        <v>38</v>
-      </c>
-      <c r="B40" s="7" t="s">
+    <row r="40" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A40" s="5">
         <v>37</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -2425,12 +2852,12 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
     </row>
-    <row r="41" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A41" s="6">
-        <v>39</v>
-      </c>
-      <c r="B41" s="7" t="s">
+    <row r="41" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A41" s="5">
         <v>38</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -2454,12 +2881,12 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
     </row>
-    <row r="42" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="6">
-        <v>40</v>
-      </c>
-      <c r="B42" s="7" t="s">
+    <row r="42" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A42" s="5">
         <v>39</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -2483,12 +2910,12 @@
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
     </row>
-    <row r="43" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A43" s="6">
-        <v>41</v>
-      </c>
-      <c r="B43" s="7" t="s">
+    <row r="43" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A43" s="5">
         <v>40</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -2512,12 +2939,12 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
     </row>
-    <row r="44" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A44" s="6">
-        <v>42</v>
-      </c>
-      <c r="B44" s="7" t="s">
+    <row r="44" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A44" s="5">
         <v>41</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -2541,12 +2968,12 @@
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
     </row>
-    <row r="45" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="6">
-        <v>43</v>
-      </c>
-      <c r="B45" s="7" t="s">
+    <row r="45" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A45" s="5">
         <v>42</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -2570,12 +2997,12 @@
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
     </row>
-    <row r="46" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A46" s="6">
-        <v>44</v>
-      </c>
-      <c r="B46" s="7" t="s">
+    <row r="46" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A46" s="5">
         <v>43</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -2599,12 +3026,12 @@
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
     </row>
-    <row r="47" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A47" s="6">
-        <v>45</v>
-      </c>
-      <c r="B47" s="7" t="s">
+    <row r="47" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A47" s="5">
         <v>44</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -2628,12 +3055,12 @@
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
     </row>
-    <row r="48" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="6">
-        <v>46</v>
-      </c>
-      <c r="B48" s="7" t="s">
+    <row r="48" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A48" s="5">
         <v>45</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -2657,12 +3084,12 @@
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
     </row>
-    <row r="49" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A49" s="6">
-        <v>47</v>
-      </c>
-      <c r="B49" s="7" t="s">
+    <row r="49" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A49" s="5">
         <v>46</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2686,12 +3113,12 @@
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
     </row>
-    <row r="50" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A50" s="6">
-        <v>48</v>
-      </c>
-      <c r="B50" s="7" t="s">
+    <row r="50" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A50" s="5">
         <v>47</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2715,12 +3142,12 @@
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
     </row>
-    <row r="51" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="6">
-        <v>49</v>
-      </c>
-      <c r="B51" s="7" t="s">
+    <row r="51" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A51" s="5">
         <v>48</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2744,12 +3171,12 @@
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
     </row>
-    <row r="52" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="6">
-        <v>50</v>
-      </c>
-      <c r="B52" s="7" t="s">
+    <row r="52" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A52" s="5">
         <v>49</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2773,12 +3200,12 @@
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
     </row>
-    <row r="53" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A53" s="6">
-        <v>51</v>
-      </c>
-      <c r="B53" s="7" t="s">
+    <row r="53" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A53" s="5">
         <v>50</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2802,12 +3229,12 @@
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
     </row>
-    <row r="54" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="6">
-        <v>52</v>
-      </c>
-      <c r="B54" s="7" t="s">
+    <row r="54" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A54" s="5">
         <v>51</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2831,12 +3258,12 @@
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
     </row>
-    <row r="55" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="6">
-        <v>53</v>
-      </c>
-      <c r="B55" s="7" t="s">
+    <row r="55" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A55" s="5">
         <v>52</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -2860,12 +3287,12 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
     </row>
-    <row r="56" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A56" s="6">
-        <v>54</v>
-      </c>
-      <c r="B56" s="7" t="s">
+    <row r="56" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A56" s="5">
         <v>53</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2889,12 +3316,12 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
     </row>
-    <row r="57" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A57" s="6">
-        <v>55</v>
-      </c>
-      <c r="B57" s="7" t="s">
+    <row r="57" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A57" s="5">
         <v>54</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2918,12 +3345,12 @@
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
     </row>
-    <row r="58" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="6">
-        <v>56</v>
-      </c>
-      <c r="B58" s="7" t="s">
+    <row r="58" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A58" s="5">
         <v>55</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2947,12 +3374,12 @@
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
     </row>
-    <row r="59" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="6">
-        <v>57</v>
-      </c>
-      <c r="B59" s="7" t="s">
+    <row r="59" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A59" s="5">
         <v>56</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2976,12 +3403,12 @@
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
     </row>
-    <row r="60" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="6">
-        <v>58</v>
-      </c>
-      <c r="B60" s="7" t="s">
+    <row r="60" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A60" s="5">
         <v>57</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -3005,12 +3432,12 @@
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
     </row>
-    <row r="61" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="6">
-        <v>59</v>
-      </c>
-      <c r="B61" s="7" t="s">
+    <row r="61" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A61" s="5">
         <v>58</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -3034,12 +3461,12 @@
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
     </row>
-    <row r="62" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A62" s="6">
-        <v>60</v>
-      </c>
-      <c r="B62" s="7" t="s">
+    <row r="62" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A62" s="5">
         <v>59</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -3063,12 +3490,12 @@
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
     </row>
-    <row r="63" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A63" s="6">
-        <v>61</v>
-      </c>
-      <c r="B63" s="7" t="s">
+    <row r="63" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A63" s="5">
         <v>60</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -3092,12 +3519,12 @@
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
     </row>
-    <row r="64" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A64" s="6">
-        <v>62</v>
-      </c>
-      <c r="B64" s="7" t="s">
+    <row r="64" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A64" s="5">
         <v>61</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -3121,12 +3548,12 @@
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
     </row>
-    <row r="65" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A65" s="6">
-        <v>63</v>
-      </c>
-      <c r="B65" s="7" t="s">
+    <row r="65" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A65" s="5">
         <v>62</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -3150,12 +3577,12 @@
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
     </row>
-    <row r="66" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A66" s="6">
-        <v>64</v>
-      </c>
-      <c r="B66" s="7" t="s">
+    <row r="66" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A66" s="5">
         <v>63</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -3179,12 +3606,12 @@
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
     </row>
-    <row r="67" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A67" s="6">
-        <v>65</v>
-      </c>
-      <c r="B67" s="7" t="s">
+    <row r="67" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A67" s="5">
         <v>64</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -3208,12 +3635,12 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
     </row>
-    <row r="68" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A68" s="6">
-        <v>66</v>
-      </c>
-      <c r="B68" s="7" t="s">
+    <row r="68" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A68" s="5">
         <v>65</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -3237,12 +3664,12 @@
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
     </row>
-    <row r="69" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A69" s="6">
-        <v>67</v>
-      </c>
-      <c r="B69" s="7" t="s">
+    <row r="69" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A69" s="5">
         <v>66</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -3266,12 +3693,12 @@
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
     </row>
-    <row r="70" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A70" s="6">
-        <v>68</v>
-      </c>
-      <c r="B70" s="7" t="s">
+    <row r="70" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A70" s="5">
         <v>67</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -3295,12 +3722,12 @@
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
     </row>
-    <row r="71" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A71" s="6">
-        <v>69</v>
-      </c>
-      <c r="B71" s="7" t="s">
+    <row r="71" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A71" s="5">
         <v>68</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -3324,12 +3751,12 @@
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
     </row>
-    <row r="72" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A72" s="6">
-        <v>70</v>
-      </c>
-      <c r="B72" s="7" t="s">
+    <row r="72" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A72" s="5">
         <v>69</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -3353,12 +3780,12 @@
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
     </row>
-    <row r="73" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A73" s="6">
-        <v>71</v>
-      </c>
-      <c r="B73" s="7" t="s">
+    <row r="73" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A73" s="5">
         <v>70</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -3382,12 +3809,12 @@
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
     </row>
-    <row r="74" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A74" s="6">
-        <v>72</v>
-      </c>
-      <c r="B74" s="7" t="s">
+    <row r="74" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A74" s="5">
         <v>71</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -3411,12 +3838,12 @@
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
     </row>
-    <row r="75" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A75" s="6">
-        <v>73</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>156</v>
+    <row r="75" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A75" s="5">
+        <v>72</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -3433,21 +3860,19 @@
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
-      <c r="R75" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="R75" s="3"/>
       <c r="S75" s="3"/>
       <c r="T75" s="3"/>
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
     </row>
-    <row r="76" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A76" s="6">
-        <v>74</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>157</v>
+    <row r="76" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A76" s="5">
+        <v>73</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -3473,12 +3898,12 @@
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
     </row>
-    <row r="77" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A77" s="6">
-        <v>75</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>158</v>
+    <row r="77" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A77" s="5">
+        <v>74</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -3504,12 +3929,12 @@
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
     </row>
-    <row r="78" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A78" s="6">
-        <v>76</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>159</v>
+    <row r="78" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A78" s="5">
+        <v>75</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -3535,12 +3960,12 @@
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
     </row>
-    <row r="79" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A79" s="6">
-        <v>77</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>160</v>
+    <row r="79" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A79" s="5">
+        <v>76</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -3566,12 +3991,12 @@
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
     </row>
-    <row r="80" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A80" s="6">
-        <v>78</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>161</v>
+    <row r="80" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A80" s="5">
+        <v>77</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -3597,12 +4022,12 @@
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
     </row>
-    <row r="81" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A81" s="6">
-        <v>79</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>162</v>
+    <row r="81" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A81" s="5">
+        <v>78</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -3628,12 +4053,12 @@
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
     </row>
-    <row r="82" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A82" s="6">
-        <v>80</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>163</v>
+    <row r="82" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A82" s="5">
+        <v>79</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -3659,12 +4084,12 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
     </row>
-    <row r="83" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A83" s="6">
-        <v>81</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>164</v>
+    <row r="83" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A83" s="5">
+        <v>80</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -3684,18 +4109,20 @@
       <c r="R83" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="S83" s="3"/>
+      <c r="S83" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="T83" s="3"/>
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
       <c r="W83" s="3"/>
     </row>
-    <row r="84" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A84" s="6">
-        <v>82</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>165</v>
+    <row r="84" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A84" s="5">
+        <v>81</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -3712,19 +4139,21 @@
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
-      <c r="R84" s="3"/>
+      <c r="R84" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="S84" s="3"/>
       <c r="T84" s="3"/>
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>
     </row>
-    <row r="85" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A85" s="6">
-        <v>83</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>166</v>
+    <row r="85" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A85" s="5">
+        <v>82</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -3748,12 +4177,12 @@
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>
     </row>
-    <row r="86" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A86" s="6">
-        <v>84</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>167</v>
+    <row r="86" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A86" s="5">
+        <v>83</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -3777,12 +4206,12 @@
       <c r="V86" s="3"/>
       <c r="W86" s="3"/>
     </row>
-    <row r="87" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A87" s="6">
-        <v>85</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>168</v>
+    <row r="87" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A87" s="5">
+        <v>84</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -3806,12 +4235,12 @@
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
     </row>
-    <row r="88" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A88" s="6">
-        <v>86</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>169</v>
+    <row r="88" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A88" s="5">
+        <v>85</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -3835,12 +4264,12 @@
       <c r="V88" s="3"/>
       <c r="W88" s="3"/>
     </row>
-    <row r="89" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A89" s="6">
-        <v>87</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>170</v>
+    <row r="89" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A89" s="5">
+        <v>86</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -3864,12 +4293,12 @@
       <c r="V89" s="3"/>
       <c r="W89" s="3"/>
     </row>
-    <row r="90" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A90" s="6">
-        <v>88</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>171</v>
+    <row r="90" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A90" s="5">
+        <v>87</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -3893,12 +4322,12 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
     </row>
-    <row r="91" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A91" s="6">
-        <v>89</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>172</v>
+    <row r="91" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A91" s="5">
+        <v>88</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -3922,12 +4351,12 @@
       <c r="V91" s="3"/>
       <c r="W91" s="3"/>
     </row>
-    <row r="92" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A92" s="6">
-        <v>90</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>173</v>
+    <row r="92" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A92" s="5">
+        <v>89</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -3951,12 +4380,12 @@
       <c r="V92" s="3"/>
       <c r="W92" s="3"/>
     </row>
-    <row r="93" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A93" s="6">
-        <v>91</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>72</v>
+    <row r="93" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A93" s="5">
+        <v>90</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -3980,12 +4409,12 @@
       <c r="V93" s="3"/>
       <c r="W93" s="3"/>
     </row>
-    <row r="94" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A94" s="6">
-        <v>92</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>73</v>
+    <row r="94" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A94" s="5">
+        <v>91</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -4009,12 +4438,12 @@
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>
     </row>
-    <row r="95" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A95" s="6">
-        <v>93</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>74</v>
+    <row r="95" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A95" s="5">
+        <v>92</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -4038,12 +4467,12 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
     </row>
-    <row r="96" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A96" s="6">
-        <v>94</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>75</v>
+    <row r="96" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A96" s="5">
+        <v>93</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -4067,12 +4496,12 @@
       <c r="V96" s="3"/>
       <c r="W96" s="3"/>
     </row>
-    <row r="97" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A97" s="6">
-        <v>95</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>76</v>
+    <row r="97" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A97" s="5">
+        <v>94</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -4096,12 +4525,12 @@
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
     </row>
-    <row r="98" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A98" s="6">
-        <v>96</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>3</v>
+    <row r="98" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A98" s="5">
+        <v>95</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -4125,12 +4554,12 @@
       <c r="V98" s="3"/>
       <c r="W98" s="3"/>
     </row>
-    <row r="99" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A99" s="6">
-        <v>97</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>77</v>
+    <row r="99" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A99" s="5">
+        <v>96</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -4154,12 +4583,12 @@
       <c r="V99" s="3"/>
       <c r="W99" s="3"/>
     </row>
-    <row r="100" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A100" s="6">
-        <v>98</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>78</v>
+    <row r="100" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A100" s="5">
+        <v>97</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -4183,12 +4612,12 @@
       <c r="V100" s="3"/>
       <c r="W100" s="3"/>
     </row>
-    <row r="101" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A101" s="6">
-        <v>99</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>79</v>
+    <row r="101" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A101" s="5">
+        <v>98</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -4212,12 +4641,12 @@
       <c r="V101" s="3"/>
       <c r="W101" s="3"/>
     </row>
-    <row r="102" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A102" s="6">
-        <v>100</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>80</v>
+    <row r="102" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A102" s="5">
+        <v>99</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -4241,12 +4670,12 @@
       <c r="V102" s="3"/>
       <c r="W102" s="3"/>
     </row>
-    <row r="103" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A103" s="6">
-        <v>101</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>81</v>
+    <row r="103" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A103" s="5">
+        <v>100</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -4270,12 +4699,12 @@
       <c r="V103" s="3"/>
       <c r="W103" s="3"/>
     </row>
-    <row r="104" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A104" s="6">
-        <v>102</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>82</v>
+    <row r="104" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A104" s="5">
+        <v>101</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -4299,12 +4728,12 @@
       <c r="V104" s="3"/>
       <c r="W104" s="3"/>
     </row>
-    <row r="105" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A105" s="6">
-        <v>103</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>83</v>
+    <row r="105" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A105" s="5">
+        <v>102</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -4328,12 +4757,12 @@
       <c r="V105" s="3"/>
       <c r="W105" s="3"/>
     </row>
-    <row r="106" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A106" s="6">
-        <v>104</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>84</v>
+    <row r="106" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A106" s="5">
+        <v>103</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -4357,12 +4786,12 @@
       <c r="V106" s="3"/>
       <c r="W106" s="3"/>
     </row>
-    <row r="107" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A107" s="6">
-        <v>105</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>85</v>
+    <row r="107" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A107" s="5">
+        <v>104</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -4386,12 +4815,12 @@
       <c r="V107" s="3"/>
       <c r="W107" s="3"/>
     </row>
-    <row r="108" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A108" s="6">
-        <v>106</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>86</v>
+    <row r="108" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A108" s="5">
+        <v>105</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -4415,12 +4844,12 @@
       <c r="V108" s="3"/>
       <c r="W108" s="3"/>
     </row>
-    <row r="109" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A109" s="6">
-        <v>107</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>87</v>
+    <row r="109" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A109" s="5">
+        <v>106</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -4444,12 +4873,12 @@
       <c r="V109" s="3"/>
       <c r="W109" s="3"/>
     </row>
-    <row r="110" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A110" s="6">
-        <v>108</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>88</v>
+    <row r="110" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A110" s="5">
+        <v>107</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -4473,12 +4902,12 @@
       <c r="V110" s="3"/>
       <c r="W110" s="3"/>
     </row>
-    <row r="111" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A111" s="6">
-        <v>109</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>89</v>
+    <row r="111" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A111" s="5">
+        <v>108</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -4502,12 +4931,12 @@
       <c r="V111" s="3"/>
       <c r="W111" s="3"/>
     </row>
-    <row r="112" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A112" s="6">
-        <v>110</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>90</v>
+    <row r="112" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A112" s="5">
+        <v>109</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -4531,12 +4960,12 @@
       <c r="V112" s="3"/>
       <c r="W112" s="3"/>
     </row>
-    <row r="113" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A113" s="6">
-        <v>111</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>30</v>
+    <row r="113" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A113" s="5">
+        <v>110</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -4560,12 +4989,12 @@
       <c r="V113" s="3"/>
       <c r="W113" s="3"/>
     </row>
-    <row r="114" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A114" s="6">
-        <v>112</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>91</v>
+    <row r="114" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A114" s="5">
+        <v>111</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -4589,12 +5018,12 @@
       <c r="V114" s="3"/>
       <c r="W114" s="3"/>
     </row>
-    <row r="115" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A115" s="6">
-        <v>113</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>92</v>
+    <row r="115" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A115" s="5">
+        <v>112</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -4618,12 +5047,12 @@
       <c r="V115" s="3"/>
       <c r="W115" s="3"/>
     </row>
-    <row r="116" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A116" s="6">
-        <v>114</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>93</v>
+    <row r="116" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A116" s="5">
+        <v>113</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -4647,12 +5076,12 @@
       <c r="V116" s="3"/>
       <c r="W116" s="3"/>
     </row>
-    <row r="117" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A117" s="6">
-        <v>115</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>94</v>
+    <row r="117" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A117" s="5">
+        <v>114</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -4676,12 +5105,12 @@
       <c r="V117" s="3"/>
       <c r="W117" s="3"/>
     </row>
-    <row r="118" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A118" s="6">
-        <v>116</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>95</v>
+    <row r="118" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A118" s="5">
+        <v>115</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -4705,12 +5134,12 @@
       <c r="V118" s="3"/>
       <c r="W118" s="3"/>
     </row>
-    <row r="119" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A119" s="6">
-        <v>117</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>96</v>
+    <row r="119" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A119" s="5">
+        <v>116</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -4734,12 +5163,12 @@
       <c r="V119" s="3"/>
       <c r="W119" s="3"/>
     </row>
-    <row r="120" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A120" s="6">
-        <v>118</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>97</v>
+    <row r="120" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A120" s="5">
+        <v>117</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -4763,12 +5192,12 @@
       <c r="V120" s="3"/>
       <c r="W120" s="3"/>
     </row>
-    <row r="121" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A121" s="6">
-        <v>119</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>98</v>
+    <row r="121" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A121" s="5">
+        <v>118</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -4792,12 +5221,12 @@
       <c r="V121" s="3"/>
       <c r="W121" s="3"/>
     </row>
-    <row r="122" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A122" s="6">
-        <v>120</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>99</v>
+    <row r="122" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A122" s="5">
+        <v>119</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -4821,12 +5250,12 @@
       <c r="V122" s="3"/>
       <c r="W122" s="3"/>
     </row>
-    <row r="123" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A123" s="6">
-        <v>121</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>100</v>
+    <row r="123" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A123" s="5">
+        <v>120</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -4850,12 +5279,12 @@
       <c r="V123" s="3"/>
       <c r="W123" s="3"/>
     </row>
-    <row r="124" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A124" s="6">
-        <v>122</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>101</v>
+    <row r="124" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A124" s="5">
+        <v>121</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -4879,12 +5308,12 @@
       <c r="V124" s="3"/>
       <c r="W124" s="3"/>
     </row>
-    <row r="125" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A125" s="6">
-        <v>123</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>102</v>
+    <row r="125" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A125" s="5">
+        <v>122</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -4908,12 +5337,12 @@
       <c r="V125" s="3"/>
       <c r="W125" s="3"/>
     </row>
-    <row r="126" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A126" s="6">
-        <v>124</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>103</v>
+    <row r="126" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A126" s="5">
+        <v>123</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -4937,12 +5366,12 @@
       <c r="V126" s="3"/>
       <c r="W126" s="3"/>
     </row>
-    <row r="127" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A127" s="6">
-        <v>125</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>104</v>
+    <row r="127" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A127" s="5">
+        <v>124</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -4966,12 +5395,12 @@
       <c r="V127" s="3"/>
       <c r="W127" s="3"/>
     </row>
-    <row r="128" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A128" s="6">
-        <v>126</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>105</v>
+    <row r="128" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A128" s="5">
+        <v>125</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -4995,12 +5424,12 @@
       <c r="V128" s="3"/>
       <c r="W128" s="3"/>
     </row>
-    <row r="129" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A129" s="6">
-        <v>127</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>106</v>
+    <row r="129" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A129" s="5">
+        <v>126</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -5024,12 +5453,12 @@
       <c r="V129" s="3"/>
       <c r="W129" s="3"/>
     </row>
-    <row r="130" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A130" s="6">
-        <v>128</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>107</v>
+    <row r="130" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A130" s="5">
+        <v>127</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -5053,12 +5482,12 @@
       <c r="V130" s="3"/>
       <c r="W130" s="3"/>
     </row>
-    <row r="131" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A131" s="6">
-        <v>129</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>108</v>
+    <row r="131" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A131" s="5">
+        <v>128</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -5082,12 +5511,12 @@
       <c r="V131" s="3"/>
       <c r="W131" s="3"/>
     </row>
-    <row r="132" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A132" s="6">
-        <v>130</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>109</v>
+    <row r="132" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A132" s="5">
+        <v>129</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -5111,12 +5540,12 @@
       <c r="V132" s="3"/>
       <c r="W132" s="3"/>
     </row>
-    <row r="133" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A133" s="6">
-        <v>131</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>110</v>
+    <row r="133" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A133" s="5">
+        <v>130</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -5140,12 +5569,12 @@
       <c r="V133" s="3"/>
       <c r="W133" s="3"/>
     </row>
-    <row r="134" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A134" s="6">
-        <v>132</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>111</v>
+    <row r="134" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A134" s="5">
+        <v>131</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -5169,12 +5598,12 @@
       <c r="V134" s="3"/>
       <c r="W134" s="3"/>
     </row>
-    <row r="135" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A135" s="6">
-        <v>133</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>112</v>
+    <row r="135" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A135" s="5">
+        <v>132</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -5198,12 +5627,12 @@
       <c r="V135" s="3"/>
       <c r="W135" s="3"/>
     </row>
-    <row r="136" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A136" s="6">
-        <v>134</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>113</v>
+    <row r="136" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A136" s="5">
+        <v>133</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -5227,12 +5656,12 @@
       <c r="V136" s="3"/>
       <c r="W136" s="3"/>
     </row>
-    <row r="137" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A137" s="6">
-        <v>135</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>114</v>
+    <row r="137" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A137" s="5">
+        <v>134</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -5256,12 +5685,12 @@
       <c r="V137" s="3"/>
       <c r="W137" s="3"/>
     </row>
-    <row r="138" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A138" s="6">
-        <v>136</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>115</v>
+    <row r="138" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A138" s="5">
+        <v>135</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -5285,12 +5714,12 @@
       <c r="V138" s="3"/>
       <c r="W138" s="3"/>
     </row>
-    <row r="139" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A139" s="6">
-        <v>137</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>116</v>
+    <row r="139" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A139" s="5">
+        <v>136</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -5314,12 +5743,12 @@
       <c r="V139" s="3"/>
       <c r="W139" s="3"/>
     </row>
-    <row r="140" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A140" s="6">
-        <v>138</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>117</v>
+    <row r="140" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A140" s="5">
+        <v>137</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -5343,12 +5772,12 @@
       <c r="V140" s="3"/>
       <c r="W140" s="3"/>
     </row>
-    <row r="141" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A141" s="6">
-        <v>139</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>118</v>
+    <row r="141" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A141" s="5">
+        <v>138</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -5372,12 +5801,12 @@
       <c r="V141" s="3"/>
       <c r="W141" s="3"/>
     </row>
-    <row r="142" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A142" s="6">
-        <v>140</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>119</v>
+    <row r="142" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A142" s="5">
+        <v>139</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -5401,12 +5830,12 @@
       <c r="V142" s="3"/>
       <c r="W142" s="3"/>
     </row>
-    <row r="143" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A143" s="6">
-        <v>141</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>120</v>
+    <row r="143" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A143" s="5">
+        <v>140</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -5430,12 +5859,12 @@
       <c r="V143" s="3"/>
       <c r="W143" s="3"/>
     </row>
-    <row r="144" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A144" s="6">
-        <v>142</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>121</v>
+    <row r="144" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A144" s="5">
+        <v>141</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -5459,12 +5888,12 @@
       <c r="V144" s="3"/>
       <c r="W144" s="3"/>
     </row>
-    <row r="145" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A145" s="6">
-        <v>143</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>122</v>
+    <row r="145" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A145" s="5">
+        <v>142</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -5488,12 +5917,12 @@
       <c r="V145" s="3"/>
       <c r="W145" s="3"/>
     </row>
-    <row r="146" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A146" s="6">
-        <v>144</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>123</v>
+    <row r="146" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A146" s="5">
+        <v>143</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -5517,12 +5946,12 @@
       <c r="V146" s="3"/>
       <c r="W146" s="3"/>
     </row>
-    <row r="147" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A147" s="6">
-        <v>145</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>124</v>
+    <row r="147" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A147" s="5">
+        <v>144</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -5546,12 +5975,12 @@
       <c r="V147" s="3"/>
       <c r="W147" s="3"/>
     </row>
-    <row r="148" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A148" s="6">
-        <v>146</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>125</v>
+    <row r="148" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A148" s="5">
+        <v>145</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -5575,12 +6004,12 @@
       <c r="V148" s="3"/>
       <c r="W148" s="3"/>
     </row>
-    <row r="149" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A149" s="6">
-        <v>147</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>126</v>
+    <row r="149" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A149" s="5">
+        <v>146</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -5604,12 +6033,12 @@
       <c r="V149" s="3"/>
       <c r="W149" s="3"/>
     </row>
-    <row r="150" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A150" s="6">
-        <v>148</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>127</v>
+    <row r="150" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A150" s="5">
+        <v>147</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -5633,12 +6062,12 @@
       <c r="V150" s="3"/>
       <c r="W150" s="3"/>
     </row>
-    <row r="151" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A151" s="6">
-        <v>149</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>128</v>
+    <row r="151" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A151" s="5">
+        <v>148</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -5662,17 +6091,15 @@
       <c r="V151" s="3"/>
       <c r="W151" s="3"/>
     </row>
-    <row r="152" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A152" s="6">
-        <v>150</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>175</v>
+    <row r="152" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A152" s="5">
+        <v>149</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C152" s="3"/>
-      <c r="D152" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="D152" s="3"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
@@ -5693,12 +6120,12 @@
       <c r="V152" s="3"/>
       <c r="W152" s="3"/>
     </row>
-    <row r="153" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A153" s="6">
-        <v>151</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>176</v>
+    <row r="153" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A153" s="5">
+        <v>150</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3" t="s">
@@ -5724,12 +6151,12 @@
       <c r="V153" s="3"/>
       <c r="W153" s="3"/>
     </row>
-    <row r="154" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A154" s="6">
-        <v>152</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>189</v>
+    <row r="154" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A154" s="5">
+        <v>151</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3" t="s">
@@ -5755,12 +6182,12 @@
       <c r="V154" s="3"/>
       <c r="W154" s="3"/>
     </row>
-    <row r="155" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A155" s="6">
-        <v>153</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>177</v>
+    <row r="155" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A155" s="5">
+        <v>152</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3" t="s">
@@ -5786,15 +6213,15 @@
       <c r="V155" s="3"/>
       <c r="W155" s="3"/>
     </row>
-    <row r="156" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A156" s="6">
-        <v>154</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>178</v>
+    <row r="156" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A156" s="5">
+        <v>153</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="C156" s="3"/>
-      <c r="D156" s="3" t="s">
+      <c r="D156" s="19" t="s">
         <v>174</v>
       </c>
       <c r="E156" s="3"/>
@@ -5817,15 +6244,15 @@
       <c r="V156" s="3"/>
       <c r="W156" s="3"/>
     </row>
-    <row r="157" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A157" s="6">
-        <v>155</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>179</v>
+    <row r="157" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A157" s="5">
+        <v>154</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="C157" s="3"/>
-      <c r="D157" s="3" t="s">
+      <c r="D157" s="19" t="s">
         <v>174</v>
       </c>
       <c r="E157" s="3"/>
@@ -5848,12 +6275,12 @@
       <c r="V157" s="3"/>
       <c r="W157" s="3"/>
     </row>
-    <row r="158" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A158" s="6">
-        <v>156</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>181</v>
+    <row r="158" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A158" s="5">
+        <v>155</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3" t="s">
@@ -5879,15 +6306,15 @@
       <c r="V158" s="3"/>
       <c r="W158" s="3"/>
     </row>
-    <row r="159" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A159" s="6">
-        <v>157</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>182</v>
+    <row r="159" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A159" s="5">
+        <v>156</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="C159" s="3"/>
-      <c r="D159" s="3" t="s">
+      <c r="D159" s="20" t="s">
         <v>174</v>
       </c>
       <c r="E159" s="3"/>
@@ -5910,15 +6337,15 @@
       <c r="V159" s="3"/>
       <c r="W159" s="3"/>
     </row>
-    <row r="160" spans="1:23" ht="15" customHeight="1">
-      <c r="A160" s="6">
-        <v>158</v>
-      </c>
-      <c r="B160" s="14" t="s">
-        <v>183</v>
+    <row r="160" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A160" s="5">
+        <v>157</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="C160" s="3"/>
-      <c r="D160" s="3" t="s">
+      <c r="D160" s="19" t="s">
         <v>174</v>
       </c>
       <c r="E160" s="3"/>
@@ -5942,14 +6369,14 @@
       <c r="W160" s="3"/>
     </row>
     <row r="161" spans="1:23" ht="15" customHeight="1">
-      <c r="A161" s="6">
-        <v>159</v>
-      </c>
-      <c r="B161" s="14" t="s">
-        <v>184</v>
+      <c r="A161" s="5">
+        <v>158</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>183</v>
       </c>
       <c r="C161" s="3"/>
-      <c r="D161" s="3" t="s">
+      <c r="D161" s="19" t="s">
         <v>174</v>
       </c>
       <c r="E161" s="3"/>
@@ -5973,14 +6400,14 @@
       <c r="W161" s="3"/>
     </row>
     <row r="162" spans="1:23" ht="15" customHeight="1">
-      <c r="A162" s="6">
-        <v>160</v>
-      </c>
-      <c r="B162" s="14" t="s">
-        <v>185</v>
+      <c r="A162" s="5">
+        <v>159</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="C162" s="3"/>
-      <c r="D162" s="3" t="s">
+      <c r="D162" s="20" t="s">
         <v>174</v>
       </c>
       <c r="E162" s="3"/>
@@ -6004,101 +6431,103 @@
       <c r="W162" s="3"/>
     </row>
     <row r="163" spans="1:23" ht="15" customHeight="1">
-      <c r="A163" s="6">
+      <c r="A163" s="5">
+        <v>160</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C163" s="3"/>
+      <c r="D163" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="3"/>
+      <c r="J163" s="3"/>
+      <c r="K163" s="3"/>
+      <c r="L163" s="3"/>
+      <c r="M163" s="3"/>
+      <c r="N163" s="3"/>
+      <c r="O163" s="3"/>
+      <c r="P163" s="3"/>
+      <c r="Q163" s="3"/>
+      <c r="R163" s="3"/>
+      <c r="S163" s="3"/>
+      <c r="T163" s="3"/>
+      <c r="U163" s="3"/>
+      <c r="V163" s="3"/>
+      <c r="W163" s="3"/>
+    </row>
+    <row r="164" spans="1:23" ht="15" customHeight="1">
+      <c r="A164" s="5">
         <v>161</v>
       </c>
-      <c r="B163" s="14" t="s">
+      <c r="B164" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C163" s="6"/>
-      <c r="D163" s="6"/>
-      <c r="E163" s="6"/>
-      <c r="F163" s="6"/>
-      <c r="G163" s="6"/>
-      <c r="H163" s="6"/>
-      <c r="I163" s="6"/>
-      <c r="J163" s="6"/>
-      <c r="K163" s="6"/>
-      <c r="L163" s="6"/>
-      <c r="M163" s="6"/>
-      <c r="N163" s="6"/>
-      <c r="O163" s="6"/>
-      <c r="P163" s="6"/>
-      <c r="Q163" s="6"/>
-      <c r="R163" s="6"/>
-      <c r="S163" s="6"/>
-      <c r="T163" s="6"/>
-      <c r="U163" s="6"/>
-      <c r="V163" s="6"/>
-      <c r="W163" s="6"/>
-    </row>
-    <row r="164" spans="1:23" ht="15" customHeight="1">
-      <c r="A164" s="6">
+      <c r="C164" s="5"/>
+      <c r="D164" s="18"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5"/>
+      <c r="K164" s="5"/>
+      <c r="L164" s="5"/>
+      <c r="M164" s="5"/>
+      <c r="N164" s="5"/>
+      <c r="O164" s="5"/>
+      <c r="P164" s="5"/>
+      <c r="Q164" s="5"/>
+      <c r="R164" s="3"/>
+      <c r="S164" s="3"/>
+      <c r="T164" s="3"/>
+      <c r="U164" s="5"/>
+      <c r="V164" s="5"/>
+      <c r="W164" s="5"/>
+    </row>
+    <row r="165" spans="1:23" ht="15" customHeight="1">
+      <c r="A165" s="5">
         <v>162</v>
       </c>
-      <c r="B164" s="14" t="s">
+      <c r="B165" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C164" s="6"/>
-      <c r="D164" s="6"/>
-      <c r="E164" s="6"/>
-      <c r="F164" s="6"/>
-      <c r="G164" s="6"/>
-      <c r="H164" s="6"/>
-      <c r="I164" s="6"/>
-      <c r="J164" s="6"/>
-      <c r="K164" s="6"/>
-      <c r="L164" s="6"/>
-      <c r="M164" s="6"/>
-      <c r="N164" s="6"/>
-      <c r="O164" s="6"/>
-      <c r="P164" s="6"/>
-      <c r="Q164" s="6"/>
-      <c r="R164" s="6"/>
-      <c r="S164" s="6"/>
-      <c r="T164" s="6"/>
-      <c r="U164" s="6"/>
-      <c r="V164" s="6"/>
-      <c r="W164" s="6"/>
-    </row>
-    <row r="165" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A165" s="6">
-        <v>163</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="3"/>
-      <c r="J165" s="3"/>
-      <c r="K165" s="3"/>
-      <c r="L165" s="3"/>
-      <c r="M165" s="3"/>
-      <c r="N165" s="3"/>
-      <c r="O165" s="3"/>
-      <c r="P165" s="3"/>
-      <c r="Q165" s="3"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="18"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="5"/>
+      <c r="K165" s="5"/>
+      <c r="L165" s="5"/>
+      <c r="M165" s="5"/>
+      <c r="N165" s="5"/>
+      <c r="O165" s="5"/>
+      <c r="P165" s="5"/>
+      <c r="Q165" s="5"/>
       <c r="R165" s="3"/>
       <c r="S165" s="3"/>
       <c r="T165" s="3"/>
-      <c r="U165" s="3"/>
-      <c r="V165" s="3"/>
-      <c r="W165" s="3"/>
-    </row>
-    <row r="166" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A166" s="6">
-        <v>164</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>180</v>
+      <c r="U165" s="5"/>
+      <c r="V165" s="5"/>
+      <c r="W165" s="5"/>
+    </row>
+    <row r="166" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A166" s="5">
+        <v>163</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
+      <c r="D166" s="18"/>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
@@ -6119,15 +6548,15 @@
       <c r="V166" s="3"/>
       <c r="W166" s="3"/>
     </row>
-    <row r="167" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A167" s="6">
-        <v>165</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>131</v>
+    <row r="167" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A167" s="5">
+        <v>164</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
+      <c r="D167" s="18"/>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
@@ -6148,15 +6577,15 @@
       <c r="V167" s="3"/>
       <c r="W167" s="3"/>
     </row>
-    <row r="168" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A168" s="6">
-        <v>166</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>132</v>
+    <row r="168" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A168" s="5">
+        <v>165</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
+      <c r="D168" s="18"/>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
@@ -6177,15 +6606,15 @@
       <c r="V168" s="3"/>
       <c r="W168" s="3"/>
     </row>
-    <row r="169" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A169" s="6">
-        <v>167</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>133</v>
+    <row r="169" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A169" s="5">
+        <v>166</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
+      <c r="D169" s="18"/>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
@@ -6206,15 +6635,15 @@
       <c r="V169" s="3"/>
       <c r="W169" s="3"/>
     </row>
-    <row r="170" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A170" s="6">
-        <v>168</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>134</v>
+    <row r="170" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A170" s="5">
+        <v>167</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
+      <c r="D170" s="18"/>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
@@ -6235,15 +6664,15 @@
       <c r="V170" s="3"/>
       <c r="W170" s="3"/>
     </row>
-    <row r="171" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A171" s="6">
-        <v>169</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>135</v>
+    <row r="171" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A171" s="5">
+        <v>168</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
+      <c r="D171" s="18"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
@@ -6264,15 +6693,15 @@
       <c r="V171" s="3"/>
       <c r="W171" s="3"/>
     </row>
-    <row r="172" spans="1:23" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A172" s="6">
-        <v>170</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>129</v>
+    <row r="172" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A172" s="5">
+        <v>169</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
+      <c r="D172" s="18"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
@@ -6293,16 +6722,1727 @@
       <c r="V172" s="3"/>
       <c r="W172" s="3"/>
     </row>
+    <row r="173" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A173" s="5">
+        <v>170</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C173" s="3"/>
+      <c r="D173" s="18"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+      <c r="I173" s="3"/>
+      <c r="J173" s="3"/>
+      <c r="K173" s="3"/>
+      <c r="L173" s="3"/>
+      <c r="M173" s="3"/>
+      <c r="N173" s="3"/>
+      <c r="O173" s="3"/>
+      <c r="P173" s="3"/>
+      <c r="Q173" s="3"/>
+      <c r="R173" s="3"/>
+      <c r="S173" s="3"/>
+      <c r="T173" s="3"/>
+      <c r="U173" s="3"/>
+      <c r="V173" s="3"/>
+      <c r="W173" s="3"/>
+    </row>
+    <row r="174" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A174" s="5">
+        <v>171</v>
+      </c>
+      <c r="B174" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C174" s="3"/>
+      <c r="D174" s="18"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3"/>
+      <c r="J174" s="3"/>
+      <c r="K174" s="3"/>
+      <c r="L174" s="3"/>
+      <c r="M174" s="3"/>
+      <c r="N174" s="3"/>
+      <c r="O174" s="3"/>
+      <c r="P174" s="3"/>
+      <c r="Q174" s="3"/>
+      <c r="R174" s="3"/>
+      <c r="S174" s="3"/>
+      <c r="T174" s="3"/>
+      <c r="U174" s="3"/>
+      <c r="V174" s="3"/>
+      <c r="W174" s="3"/>
+    </row>
+    <row r="175" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A175" s="5">
+        <v>172</v>
+      </c>
+      <c r="B175" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C175" s="3"/>
+      <c r="D175" s="18"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+      <c r="I175" s="3"/>
+      <c r="J175" s="3"/>
+      <c r="K175" s="3"/>
+      <c r="L175" s="3"/>
+      <c r="M175" s="3"/>
+      <c r="N175" s="3"/>
+      <c r="O175" s="3"/>
+      <c r="P175" s="3"/>
+      <c r="Q175" s="3"/>
+      <c r="R175" s="3"/>
+      <c r="S175" s="3"/>
+      <c r="T175" s="3"/>
+      <c r="U175" s="3"/>
+      <c r="V175" s="3"/>
+      <c r="W175" s="3"/>
+    </row>
+    <row r="176" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A176" s="5">
+        <v>173</v>
+      </c>
+      <c r="B176" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C176" s="3"/>
+      <c r="D176" s="18"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
+      <c r="I176" s="3"/>
+      <c r="J176" s="3"/>
+      <c r="K176" s="3"/>
+      <c r="L176" s="3"/>
+      <c r="M176" s="3"/>
+      <c r="N176" s="3"/>
+      <c r="O176" s="3"/>
+      <c r="P176" s="3"/>
+      <c r="Q176" s="3"/>
+      <c r="R176" s="3"/>
+      <c r="S176" s="3"/>
+      <c r="T176" s="3"/>
+      <c r="U176" s="3"/>
+      <c r="V176" s="3"/>
+      <c r="W176" s="3"/>
+    </row>
+    <row r="177" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A177" s="5">
+        <v>174</v>
+      </c>
+      <c r="B177" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C177" s="3"/>
+      <c r="D177" s="18"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="3"/>
+      <c r="J177" s="3"/>
+      <c r="K177" s="3"/>
+      <c r="L177" s="3"/>
+      <c r="M177" s="3"/>
+      <c r="N177" s="3"/>
+      <c r="O177" s="3"/>
+      <c r="P177" s="3"/>
+      <c r="Q177" s="3"/>
+      <c r="R177" s="3"/>
+      <c r="S177" s="3"/>
+      <c r="T177" s="3"/>
+      <c r="U177" s="3"/>
+      <c r="V177" s="3"/>
+      <c r="W177" s="3"/>
+    </row>
+    <row r="178" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A178" s="5">
+        <v>175</v>
+      </c>
+      <c r="B178" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C178" s="3"/>
+      <c r="D178" s="18"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
+      <c r="I178" s="3"/>
+      <c r="J178" s="3"/>
+      <c r="K178" s="3"/>
+      <c r="L178" s="3"/>
+      <c r="M178" s="3"/>
+      <c r="N178" s="3"/>
+      <c r="O178" s="3"/>
+      <c r="P178" s="3"/>
+      <c r="Q178" s="3"/>
+      <c r="R178" s="3"/>
+      <c r="S178" s="3"/>
+      <c r="T178" s="3"/>
+      <c r="U178" s="3"/>
+      <c r="V178" s="3"/>
+      <c r="W178" s="3"/>
+    </row>
+    <row r="179" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A179" s="5">
+        <v>176</v>
+      </c>
+      <c r="B179" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C179" s="3"/>
+      <c r="D179" s="18"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
+      <c r="I179" s="3"/>
+      <c r="J179" s="3"/>
+      <c r="K179" s="3"/>
+      <c r="L179" s="3"/>
+      <c r="M179" s="3"/>
+      <c r="N179" s="3"/>
+      <c r="O179" s="3"/>
+      <c r="P179" s="3"/>
+      <c r="Q179" s="3"/>
+      <c r="R179" s="3"/>
+      <c r="S179" s="3"/>
+      <c r="T179" s="3"/>
+      <c r="U179" s="3"/>
+      <c r="V179" s="3"/>
+      <c r="W179" s="3"/>
+    </row>
+    <row r="180" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A180" s="5">
+        <v>177</v>
+      </c>
+      <c r="B180" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C180" s="3"/>
+      <c r="D180" s="18"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3"/>
+      <c r="I180" s="3"/>
+      <c r="J180" s="3"/>
+      <c r="K180" s="3"/>
+      <c r="L180" s="3"/>
+      <c r="M180" s="3"/>
+      <c r="N180" s="3"/>
+      <c r="O180" s="3"/>
+      <c r="P180" s="3"/>
+      <c r="Q180" s="3"/>
+      <c r="R180" s="3"/>
+      <c r="S180" s="3"/>
+      <c r="T180" s="3"/>
+      <c r="U180" s="3"/>
+      <c r="V180" s="3"/>
+      <c r="W180" s="3"/>
+    </row>
+    <row r="181" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A181" s="5">
+        <v>178</v>
+      </c>
+      <c r="B181" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3"/>
+      <c r="I181" s="3"/>
+      <c r="J181" s="3"/>
+      <c r="K181" s="3"/>
+      <c r="L181" s="3"/>
+      <c r="M181" s="3"/>
+      <c r="N181" s="3"/>
+      <c r="O181" s="3"/>
+      <c r="P181" s="3"/>
+      <c r="Q181" s="3"/>
+      <c r="R181" s="3"/>
+      <c r="S181" s="3"/>
+      <c r="T181" s="3"/>
+      <c r="U181" s="3"/>
+      <c r="V181" s="3"/>
+      <c r="W181" s="3"/>
+    </row>
+    <row r="182" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A182" s="5">
+        <v>179</v>
+      </c>
+      <c r="B182" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3"/>
+      <c r="I182" s="3"/>
+      <c r="J182" s="3"/>
+      <c r="K182" s="3"/>
+      <c r="L182" s="3"/>
+      <c r="M182" s="3"/>
+      <c r="N182" s="3"/>
+      <c r="O182" s="3"/>
+      <c r="P182" s="3"/>
+      <c r="Q182" s="3"/>
+      <c r="R182" s="3"/>
+      <c r="S182" s="3"/>
+      <c r="T182" s="3"/>
+      <c r="U182" s="3"/>
+      <c r="V182" s="3"/>
+      <c r="W182" s="3"/>
+    </row>
+    <row r="183" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A183" s="5">
+        <v>180</v>
+      </c>
+      <c r="B183" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3"/>
+      <c r="I183" s="3"/>
+      <c r="J183" s="3"/>
+      <c r="K183" s="3"/>
+      <c r="L183" s="3"/>
+      <c r="M183" s="3"/>
+      <c r="N183" s="3"/>
+      <c r="O183" s="3"/>
+      <c r="P183" s="3"/>
+      <c r="Q183" s="3"/>
+      <c r="R183" s="3"/>
+      <c r="S183" s="3"/>
+      <c r="T183" s="3"/>
+      <c r="U183" s="3"/>
+      <c r="V183" s="3"/>
+      <c r="W183" s="3"/>
+    </row>
+    <row r="184" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A184" s="5">
+        <v>181</v>
+      </c>
+      <c r="B184" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
+      <c r="I184" s="3"/>
+      <c r="J184" s="3"/>
+      <c r="K184" s="3"/>
+      <c r="L184" s="3"/>
+      <c r="M184" s="3"/>
+      <c r="N184" s="3"/>
+      <c r="O184" s="3"/>
+      <c r="P184" s="3"/>
+      <c r="Q184" s="3"/>
+      <c r="R184" s="3"/>
+      <c r="S184" s="3"/>
+      <c r="T184" s="3"/>
+      <c r="U184" s="3"/>
+      <c r="V184" s="3"/>
+      <c r="W184" s="3"/>
+    </row>
+    <row r="185" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A185" s="5">
+        <v>182</v>
+      </c>
+      <c r="B185" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3"/>
+      <c r="I185" s="3"/>
+      <c r="J185" s="3"/>
+      <c r="K185" s="3"/>
+      <c r="L185" s="3"/>
+      <c r="M185" s="3"/>
+      <c r="N185" s="3"/>
+      <c r="O185" s="3"/>
+      <c r="P185" s="3"/>
+      <c r="Q185" s="3"/>
+      <c r="R185" s="3"/>
+      <c r="S185" s="3"/>
+      <c r="T185" s="3"/>
+      <c r="U185" s="3"/>
+      <c r="V185" s="3"/>
+      <c r="W185" s="3"/>
+    </row>
+    <row r="186" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A186" s="5">
+        <v>183</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
+      <c r="I186" s="3"/>
+      <c r="J186" s="3"/>
+      <c r="K186" s="3"/>
+      <c r="L186" s="3"/>
+      <c r="M186" s="3"/>
+      <c r="N186" s="3"/>
+      <c r="O186" s="3"/>
+      <c r="P186" s="3"/>
+      <c r="Q186" s="3"/>
+      <c r="R186" s="3"/>
+      <c r="S186" s="3"/>
+      <c r="T186" s="3"/>
+      <c r="U186" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="V186" s="3"/>
+      <c r="W186" s="3"/>
+    </row>
+    <row r="187" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A187" s="5">
+        <v>184</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
+      <c r="F187" s="3"/>
+      <c r="G187" s="3"/>
+      <c r="H187" s="3"/>
+      <c r="I187" s="3"/>
+      <c r="J187" s="3"/>
+      <c r="K187" s="3"/>
+      <c r="L187" s="3"/>
+      <c r="M187" s="3"/>
+      <c r="N187" s="3"/>
+      <c r="O187" s="3"/>
+      <c r="P187" s="3"/>
+      <c r="Q187" s="3"/>
+      <c r="R187" s="3"/>
+      <c r="S187" s="3"/>
+      <c r="T187" s="3"/>
+      <c r="U187" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="V187" s="3"/>
+      <c r="W187" s="3"/>
+    </row>
+    <row r="188" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A188" s="5">
+        <v>185</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3"/>
+      <c r="I188" s="3"/>
+      <c r="J188" s="3"/>
+      <c r="K188" s="3"/>
+      <c r="L188" s="3"/>
+      <c r="M188" s="3"/>
+      <c r="N188" s="3"/>
+      <c r="O188" s="3"/>
+      <c r="P188" s="3"/>
+      <c r="Q188" s="3"/>
+      <c r="R188" s="3"/>
+      <c r="S188" s="3"/>
+      <c r="T188" s="3"/>
+      <c r="U188" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="V188" s="3"/>
+      <c r="W188" s="3"/>
+    </row>
+    <row r="189" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A189" s="5">
+        <v>186</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
+      <c r="I189" s="3"/>
+      <c r="J189" s="3"/>
+      <c r="K189" s="3"/>
+      <c r="L189" s="3"/>
+      <c r="M189" s="3"/>
+      <c r="N189" s="3"/>
+      <c r="O189" s="3"/>
+      <c r="P189" s="3"/>
+      <c r="Q189" s="3"/>
+      <c r="R189" s="3"/>
+      <c r="S189" s="3"/>
+      <c r="T189" s="3"/>
+      <c r="U189" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="V189" s="3"/>
+      <c r="W189" s="3"/>
+    </row>
+    <row r="190" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A190" s="5">
+        <v>187</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
+      <c r="I190" s="3"/>
+      <c r="J190" s="3"/>
+      <c r="K190" s="3"/>
+      <c r="L190" s="3"/>
+      <c r="M190" s="3"/>
+      <c r="N190" s="3"/>
+      <c r="O190" s="3"/>
+      <c r="P190" s="3"/>
+      <c r="Q190" s="3"/>
+      <c r="R190" s="3"/>
+      <c r="S190" s="3"/>
+      <c r="T190" s="3"/>
+      <c r="U190" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="V190" s="3"/>
+      <c r="W190" s="3"/>
+    </row>
+    <row r="191" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A191" s="5">
+        <v>188</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="3"/>
+      <c r="I191" s="3"/>
+      <c r="J191" s="3"/>
+      <c r="K191" s="3"/>
+      <c r="L191" s="3"/>
+      <c r="M191" s="3"/>
+      <c r="N191" s="3"/>
+      <c r="O191" s="3"/>
+      <c r="P191" s="3"/>
+      <c r="Q191" s="3"/>
+      <c r="R191" s="3"/>
+      <c r="S191" s="3"/>
+      <c r="T191" s="3"/>
+      <c r="U191" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="V191" s="3"/>
+      <c r="W191" s="3"/>
+    </row>
+    <row r="192" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A192" s="5">
+        <v>189</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="3"/>
+      <c r="I192" s="3"/>
+      <c r="J192" s="3"/>
+      <c r="K192" s="3"/>
+      <c r="L192" s="3"/>
+      <c r="M192" s="3"/>
+      <c r="N192" s="3"/>
+      <c r="O192" s="3"/>
+      <c r="P192" s="3"/>
+      <c r="Q192" s="3"/>
+      <c r="R192" s="3"/>
+      <c r="S192" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T192" s="3"/>
+      <c r="U192" s="3"/>
+      <c r="V192" s="3"/>
+      <c r="W192" s="3"/>
+    </row>
+    <row r="193" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A193" s="5">
+        <v>190</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+      <c r="I193" s="3"/>
+      <c r="J193" s="3"/>
+      <c r="K193" s="3"/>
+      <c r="L193" s="3"/>
+      <c r="M193" s="3"/>
+      <c r="N193" s="3"/>
+      <c r="O193" s="3"/>
+      <c r="P193" s="3"/>
+      <c r="Q193" s="3"/>
+      <c r="R193" s="3"/>
+      <c r="S193" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T193" s="3"/>
+      <c r="U193" s="3"/>
+      <c r="V193" s="3"/>
+      <c r="W193" s="3"/>
+    </row>
+    <row r="194" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A194" s="5">
+        <v>191</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3"/>
+      <c r="I194" s="3"/>
+      <c r="J194" s="3"/>
+      <c r="K194" s="3"/>
+      <c r="L194" s="3"/>
+      <c r="M194" s="3"/>
+      <c r="N194" s="3"/>
+      <c r="O194" s="3"/>
+      <c r="P194" s="3"/>
+      <c r="Q194" s="3"/>
+      <c r="R194" s="3"/>
+      <c r="S194" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T194" s="3"/>
+      <c r="U194" s="3"/>
+      <c r="V194" s="3"/>
+      <c r="W194" s="3"/>
+    </row>
+    <row r="195" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A195" s="5">
+        <v>192</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
+      <c r="I195" s="3"/>
+      <c r="J195" s="3"/>
+      <c r="K195" s="3"/>
+      <c r="L195" s="3"/>
+      <c r="M195" s="3"/>
+      <c r="N195" s="3"/>
+      <c r="O195" s="3"/>
+      <c r="P195" s="3"/>
+      <c r="Q195" s="3"/>
+      <c r="R195" s="3"/>
+      <c r="S195" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T195" s="3"/>
+      <c r="U195" s="3"/>
+      <c r="V195" s="3"/>
+      <c r="W195" s="3"/>
+    </row>
+    <row r="196" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A196" s="5">
+        <v>193</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+      <c r="I196" s="3"/>
+      <c r="J196" s="3"/>
+      <c r="K196" s="3"/>
+      <c r="L196" s="3"/>
+      <c r="M196" s="3"/>
+      <c r="N196" s="3"/>
+      <c r="O196" s="3"/>
+      <c r="P196" s="3"/>
+      <c r="Q196" s="3"/>
+      <c r="R196" s="3"/>
+      <c r="S196" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T196" s="3"/>
+      <c r="U196" s="3"/>
+      <c r="V196" s="3"/>
+      <c r="W196" s="3"/>
+    </row>
+    <row r="197" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A197" s="5">
+        <v>194</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
+      <c r="I197" s="3"/>
+      <c r="J197" s="3"/>
+      <c r="K197" s="3"/>
+      <c r="L197" s="3"/>
+      <c r="M197" s="3"/>
+      <c r="N197" s="3"/>
+      <c r="O197" s="3"/>
+      <c r="P197" s="3"/>
+      <c r="Q197" s="3"/>
+      <c r="R197" s="3"/>
+      <c r="S197" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T197" s="3"/>
+      <c r="U197" s="3"/>
+      <c r="V197" s="3"/>
+      <c r="W197" s="3"/>
+    </row>
+    <row r="198" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A198" s="5">
+        <v>195</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C198" s="3"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
+      <c r="I198" s="3"/>
+      <c r="J198" s="3"/>
+      <c r="K198" s="3"/>
+      <c r="L198" s="3"/>
+      <c r="M198" s="3"/>
+      <c r="N198" s="3"/>
+      <c r="O198" s="3"/>
+      <c r="P198" s="3"/>
+      <c r="Q198" s="3"/>
+      <c r="R198" s="3"/>
+      <c r="S198" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T198" s="3"/>
+      <c r="U198" s="3"/>
+      <c r="V198" s="3"/>
+      <c r="W198" s="3"/>
+    </row>
+    <row r="199" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A199" s="5">
+        <v>196</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+      <c r="I199" s="3"/>
+      <c r="J199" s="3"/>
+      <c r="K199" s="3"/>
+      <c r="L199" s="3"/>
+      <c r="M199" s="3"/>
+      <c r="N199" s="3"/>
+      <c r="O199" s="3"/>
+      <c r="P199" s="3"/>
+      <c r="Q199" s="3"/>
+      <c r="R199" s="3"/>
+      <c r="S199" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T199" s="3"/>
+      <c r="U199" s="3"/>
+      <c r="V199" s="3"/>
+      <c r="W199" s="3"/>
+    </row>
+    <row r="200" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A200" s="5">
+        <v>197</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+      <c r="I200" s="3"/>
+      <c r="J200" s="3"/>
+      <c r="K200" s="3"/>
+      <c r="L200" s="3"/>
+      <c r="M200" s="3"/>
+      <c r="N200" s="3"/>
+      <c r="O200" s="3"/>
+      <c r="P200" s="3"/>
+      <c r="Q200" s="3"/>
+      <c r="R200" s="3"/>
+      <c r="S200" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T200" s="3"/>
+      <c r="U200" s="3"/>
+      <c r="V200" s="3"/>
+      <c r="W200" s="3"/>
+    </row>
+    <row r="201" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A201" s="5">
+        <v>198</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C201" s="3"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="3"/>
+      <c r="H201" s="3"/>
+      <c r="I201" s="3"/>
+      <c r="J201" s="3"/>
+      <c r="K201" s="3"/>
+      <c r="L201" s="3"/>
+      <c r="M201" s="3"/>
+      <c r="N201" s="3"/>
+      <c r="O201" s="3"/>
+      <c r="P201" s="3"/>
+      <c r="Q201" s="3"/>
+      <c r="R201" s="3"/>
+      <c r="S201" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T201" s="3"/>
+      <c r="U201" s="3"/>
+      <c r="V201" s="3"/>
+      <c r="W201" s="3"/>
+    </row>
+    <row r="202" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A202" s="5">
+        <v>199</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3"/>
+      <c r="I202" s="3"/>
+      <c r="J202" s="3"/>
+      <c r="K202" s="3"/>
+      <c r="L202" s="3"/>
+      <c r="M202" s="3"/>
+      <c r="N202" s="3"/>
+      <c r="O202" s="3"/>
+      <c r="P202" s="3"/>
+      <c r="Q202" s="3"/>
+      <c r="R202" s="3"/>
+      <c r="S202" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T202" s="3"/>
+      <c r="U202" s="3"/>
+      <c r="V202" s="3"/>
+      <c r="W202" s="3"/>
+    </row>
+    <row r="203" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A203" s="5">
+        <v>200</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="3"/>
+      <c r="H203" s="3"/>
+      <c r="I203" s="3"/>
+      <c r="J203" s="3"/>
+      <c r="K203" s="3"/>
+      <c r="L203" s="3"/>
+      <c r="M203" s="3"/>
+      <c r="N203" s="3"/>
+      <c r="O203" s="3"/>
+      <c r="P203" s="3"/>
+      <c r="Q203" s="3"/>
+      <c r="R203" s="3"/>
+      <c r="S203" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T203" s="3"/>
+      <c r="U203" s="3"/>
+      <c r="V203" s="3"/>
+      <c r="W203" s="3"/>
+    </row>
+    <row r="204" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A204" s="5">
+        <v>201</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
+      <c r="I204" s="3"/>
+      <c r="J204" s="3"/>
+      <c r="K204" s="3"/>
+      <c r="L204" s="3"/>
+      <c r="M204" s="3"/>
+      <c r="N204" s="3"/>
+      <c r="O204" s="3"/>
+      <c r="P204" s="3"/>
+      <c r="Q204" s="3"/>
+      <c r="R204" s="3"/>
+      <c r="S204" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T204" s="3"/>
+      <c r="U204" s="3"/>
+      <c r="V204" s="3"/>
+      <c r="W204" s="3"/>
+    </row>
+    <row r="205" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A205" s="5">
+        <v>202</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
+      <c r="I205" s="3"/>
+      <c r="J205" s="3"/>
+      <c r="K205" s="3"/>
+      <c r="L205" s="3"/>
+      <c r="M205" s="3"/>
+      <c r="N205" s="3"/>
+      <c r="O205" s="3"/>
+      <c r="P205" s="3"/>
+      <c r="Q205" s="3"/>
+      <c r="R205" s="3"/>
+      <c r="S205" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T205" s="3"/>
+      <c r="U205" s="3"/>
+      <c r="V205" s="3"/>
+      <c r="W205" s="3"/>
+    </row>
+    <row r="206" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A206" s="5">
+        <v>203</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="3"/>
+      <c r="J206" s="3"/>
+      <c r="K206" s="3"/>
+      <c r="L206" s="3"/>
+      <c r="M206" s="3"/>
+      <c r="N206" s="3"/>
+      <c r="O206" s="3"/>
+      <c r="P206" s="3"/>
+      <c r="Q206" s="3"/>
+      <c r="R206" s="3"/>
+      <c r="S206" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T206" s="3"/>
+      <c r="U206" s="3"/>
+      <c r="V206" s="3"/>
+      <c r="W206" s="3"/>
+    </row>
+    <row r="207" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A207" s="5">
+        <v>204</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
+      <c r="I207" s="3"/>
+      <c r="J207" s="3"/>
+      <c r="K207" s="3"/>
+      <c r="L207" s="3"/>
+      <c r="M207" s="3"/>
+      <c r="N207" s="3"/>
+      <c r="O207" s="3"/>
+      <c r="P207" s="3"/>
+      <c r="Q207" s="3"/>
+      <c r="R207" s="3"/>
+      <c r="S207" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T207" s="3"/>
+      <c r="U207" s="3"/>
+      <c r="V207" s="3"/>
+      <c r="W207" s="3"/>
+    </row>
+    <row r="208" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A208" s="5">
+        <v>205</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
+      <c r="I208" s="3"/>
+      <c r="J208" s="3"/>
+      <c r="K208" s="3"/>
+      <c r="L208" s="3"/>
+      <c r="M208" s="3"/>
+      <c r="N208" s="3"/>
+      <c r="O208" s="3"/>
+      <c r="P208" s="3"/>
+      <c r="Q208" s="3"/>
+      <c r="R208" s="3"/>
+      <c r="S208" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T208" s="3"/>
+      <c r="U208" s="3"/>
+      <c r="V208" s="3"/>
+      <c r="W208" s="3"/>
+    </row>
+    <row r="209" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A209" s="5">
+        <v>206</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3"/>
+      <c r="I209" s="3"/>
+      <c r="J209" s="3"/>
+      <c r="K209" s="3"/>
+      <c r="L209" s="3"/>
+      <c r="M209" s="3"/>
+      <c r="N209" s="3"/>
+      <c r="O209" s="3"/>
+      <c r="P209" s="3"/>
+      <c r="Q209" s="3"/>
+      <c r="R209" s="3"/>
+      <c r="S209" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T209" s="3"/>
+      <c r="U209" s="3"/>
+      <c r="V209" s="3"/>
+      <c r="W209" s="3"/>
+    </row>
+    <row r="210" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A210" s="5">
+        <v>207</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
+      <c r="F210" s="3"/>
+      <c r="G210" s="3"/>
+      <c r="H210" s="3"/>
+      <c r="I210" s="3"/>
+      <c r="J210" s="3"/>
+      <c r="K210" s="3"/>
+      <c r="L210" s="3"/>
+      <c r="M210" s="3"/>
+      <c r="N210" s="3"/>
+      <c r="O210" s="3"/>
+      <c r="P210" s="3"/>
+      <c r="Q210" s="3"/>
+      <c r="R210" s="3"/>
+      <c r="S210" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T210" s="3"/>
+      <c r="U210" s="3"/>
+      <c r="V210" s="3"/>
+      <c r="W210" s="3"/>
+    </row>
+    <row r="211" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A211" s="5">
+        <v>208</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="3"/>
+      <c r="I211" s="3"/>
+      <c r="J211" s="3"/>
+      <c r="K211" s="3"/>
+      <c r="L211" s="3"/>
+      <c r="M211" s="3"/>
+      <c r="N211" s="3"/>
+      <c r="O211" s="3"/>
+      <c r="P211" s="3"/>
+      <c r="Q211" s="3"/>
+      <c r="R211" s="3"/>
+      <c r="S211" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T211" s="3"/>
+      <c r="U211" s="3"/>
+      <c r="V211" s="3"/>
+      <c r="W211" s="3"/>
+    </row>
+    <row r="212" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A212" s="5">
+        <v>209</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="3"/>
+      <c r="I212" s="3"/>
+      <c r="J212" s="3"/>
+      <c r="K212" s="3"/>
+      <c r="L212" s="3"/>
+      <c r="M212" s="3"/>
+      <c r="N212" s="3"/>
+      <c r="O212" s="3"/>
+      <c r="P212" s="3"/>
+      <c r="Q212" s="3"/>
+      <c r="R212" s="3"/>
+      <c r="S212" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T212" s="3"/>
+      <c r="U212" s="3"/>
+      <c r="V212" s="3"/>
+      <c r="W212" s="3"/>
+    </row>
+    <row r="213" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A213" s="5">
+        <v>210</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3"/>
+      <c r="F213" s="3"/>
+      <c r="G213" s="3"/>
+      <c r="H213" s="3"/>
+      <c r="I213" s="3"/>
+      <c r="J213" s="3"/>
+      <c r="K213" s="3"/>
+      <c r="L213" s="3"/>
+      <c r="M213" s="3"/>
+      <c r="N213" s="3"/>
+      <c r="O213" s="3"/>
+      <c r="P213" s="3"/>
+      <c r="Q213" s="3"/>
+      <c r="R213" s="3"/>
+      <c r="S213" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T213" s="3"/>
+      <c r="U213" s="3"/>
+      <c r="V213" s="3"/>
+      <c r="W213" s="3"/>
+    </row>
+    <row r="214" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A214" s="5">
+        <v>211</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3"/>
+      <c r="F214" s="3"/>
+      <c r="G214" s="3"/>
+      <c r="H214" s="3"/>
+      <c r="I214" s="3"/>
+      <c r="J214" s="3"/>
+      <c r="K214" s="3"/>
+      <c r="L214" s="3"/>
+      <c r="M214" s="3"/>
+      <c r="N214" s="3"/>
+      <c r="O214" s="3"/>
+      <c r="P214" s="3"/>
+      <c r="Q214" s="3"/>
+      <c r="R214" s="3"/>
+      <c r="S214" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T214" s="3"/>
+      <c r="U214" s="3"/>
+      <c r="V214" s="3"/>
+      <c r="W214" s="3"/>
+    </row>
+    <row r="215" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A215" s="5">
+        <v>212</v>
+      </c>
+      <c r="B215" s="6"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3"/>
+      <c r="E215" s="3"/>
+      <c r="F215" s="3"/>
+      <c r="G215" s="3"/>
+      <c r="H215" s="3"/>
+      <c r="I215" s="3"/>
+      <c r="J215" s="3"/>
+      <c r="K215" s="3"/>
+      <c r="L215" s="3"/>
+      <c r="M215" s="3"/>
+      <c r="N215" s="3"/>
+      <c r="O215" s="3"/>
+      <c r="P215" s="3"/>
+      <c r="Q215" s="3"/>
+      <c r="R215" s="3"/>
+      <c r="S215" s="3"/>
+      <c r="T215" s="3"/>
+      <c r="U215" s="3"/>
+      <c r="V215" s="3"/>
+      <c r="W215" s="3"/>
+    </row>
+    <row r="216" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A216" s="5">
+        <v>213</v>
+      </c>
+      <c r="B216" s="6"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3"/>
+      <c r="G216" s="3"/>
+      <c r="H216" s="3"/>
+      <c r="I216" s="3"/>
+      <c r="J216" s="3"/>
+      <c r="K216" s="3"/>
+      <c r="L216" s="3"/>
+      <c r="M216" s="3"/>
+      <c r="N216" s="3"/>
+      <c r="O216" s="3"/>
+      <c r="P216" s="3"/>
+      <c r="Q216" s="3"/>
+      <c r="R216" s="3"/>
+      <c r="S216" s="3"/>
+      <c r="T216" s="3"/>
+      <c r="U216" s="3"/>
+      <c r="V216" s="3"/>
+      <c r="W216" s="3"/>
+    </row>
+    <row r="217" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A217" s="5">
+        <v>214</v>
+      </c>
+      <c r="B217" s="6"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="3"/>
+      <c r="G217" s="3"/>
+      <c r="H217" s="3"/>
+      <c r="I217" s="3"/>
+      <c r="J217" s="3"/>
+      <c r="K217" s="3"/>
+      <c r="L217" s="3"/>
+      <c r="M217" s="3"/>
+      <c r="N217" s="3"/>
+      <c r="O217" s="3"/>
+      <c r="P217" s="3"/>
+      <c r="Q217" s="3"/>
+      <c r="R217" s="3"/>
+      <c r="S217" s="3"/>
+      <c r="T217" s="3"/>
+      <c r="U217" s="3"/>
+      <c r="V217" s="3"/>
+      <c r="W217" s="3"/>
+    </row>
+    <row r="218" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A218" s="5">
+        <v>215</v>
+      </c>
+      <c r="B218" s="6"/>
+      <c r="C218" s="3"/>
+      <c r="D218" s="3"/>
+      <c r="E218" s="3"/>
+      <c r="F218" s="3"/>
+      <c r="G218" s="3"/>
+      <c r="H218" s="3"/>
+      <c r="I218" s="3"/>
+      <c r="J218" s="3"/>
+      <c r="K218" s="3"/>
+      <c r="L218" s="3"/>
+      <c r="M218" s="3"/>
+      <c r="N218" s="3"/>
+      <c r="O218" s="3"/>
+      <c r="P218" s="3"/>
+      <c r="Q218" s="3"/>
+      <c r="R218" s="3"/>
+      <c r="S218" s="3"/>
+      <c r="T218" s="3"/>
+      <c r="U218" s="3"/>
+      <c r="V218" s="3"/>
+      <c r="W218" s="3"/>
+    </row>
+    <row r="219" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A219" s="5">
+        <v>216</v>
+      </c>
+      <c r="B219" s="6"/>
+      <c r="C219" s="3"/>
+      <c r="D219" s="3"/>
+      <c r="E219" s="3"/>
+      <c r="F219" s="3"/>
+      <c r="G219" s="3"/>
+      <c r="H219" s="3"/>
+      <c r="I219" s="3"/>
+      <c r="J219" s="3"/>
+      <c r="K219" s="3"/>
+      <c r="L219" s="3"/>
+      <c r="M219" s="3"/>
+      <c r="N219" s="3"/>
+      <c r="O219" s="3"/>
+      <c r="P219" s="3"/>
+      <c r="Q219" s="3"/>
+      <c r="R219" s="3"/>
+      <c r="S219" s="3"/>
+      <c r="T219" s="3"/>
+      <c r="U219" s="3"/>
+      <c r="V219" s="3"/>
+      <c r="W219" s="3"/>
+    </row>
+    <row r="220" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A220" s="5">
+        <v>217</v>
+      </c>
+      <c r="B220" s="6"/>
+      <c r="C220" s="3"/>
+      <c r="D220" s="3"/>
+      <c r="E220" s="3"/>
+      <c r="F220" s="3"/>
+      <c r="G220" s="3"/>
+      <c r="H220" s="3"/>
+      <c r="I220" s="3"/>
+      <c r="J220" s="3"/>
+      <c r="K220" s="3"/>
+      <c r="L220" s="3"/>
+      <c r="M220" s="3"/>
+      <c r="N220" s="3"/>
+      <c r="O220" s="3"/>
+      <c r="P220" s="3"/>
+      <c r="Q220" s="3"/>
+      <c r="R220" s="3"/>
+      <c r="S220" s="3"/>
+      <c r="T220" s="3"/>
+      <c r="U220" s="3"/>
+      <c r="V220" s="3"/>
+      <c r="W220" s="3"/>
+    </row>
+    <row r="221" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A221" s="5">
+        <v>218</v>
+      </c>
+      <c r="B221" s="6"/>
+      <c r="C221" s="3"/>
+      <c r="D221" s="3"/>
+      <c r="E221" s="3"/>
+      <c r="F221" s="3"/>
+      <c r="G221" s="3"/>
+      <c r="H221" s="3"/>
+      <c r="I221" s="3"/>
+      <c r="J221" s="3"/>
+      <c r="K221" s="3"/>
+      <c r="L221" s="3"/>
+      <c r="M221" s="3"/>
+      <c r="N221" s="3"/>
+      <c r="O221" s="3"/>
+      <c r="P221" s="3"/>
+      <c r="Q221" s="3"/>
+      <c r="R221" s="3"/>
+      <c r="S221" s="3"/>
+      <c r="T221" s="3"/>
+      <c r="U221" s="3"/>
+      <c r="V221" s="3"/>
+      <c r="W221" s="3"/>
+    </row>
+    <row r="222" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A222" s="5">
+        <v>219</v>
+      </c>
+      <c r="B222" s="6"/>
+      <c r="C222" s="3"/>
+      <c r="D222" s="3"/>
+      <c r="E222" s="3"/>
+      <c r="F222" s="3"/>
+      <c r="G222" s="3"/>
+      <c r="H222" s="3"/>
+      <c r="I222" s="3"/>
+      <c r="J222" s="3"/>
+      <c r="K222" s="3"/>
+      <c r="L222" s="3"/>
+      <c r="M222" s="3"/>
+      <c r="N222" s="3"/>
+      <c r="O222" s="3"/>
+      <c r="P222" s="3"/>
+      <c r="Q222" s="3"/>
+      <c r="R222" s="3"/>
+      <c r="S222" s="3"/>
+      <c r="T222" s="3"/>
+      <c r="U222" s="3"/>
+      <c r="V222" s="3"/>
+      <c r="W222" s="3"/>
+    </row>
+    <row r="223" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A223" s="5">
+        <v>220</v>
+      </c>
+      <c r="B223" s="6"/>
+      <c r="C223" s="3"/>
+      <c r="D223" s="3"/>
+      <c r="E223" s="3"/>
+      <c r="F223" s="3"/>
+      <c r="G223" s="3"/>
+      <c r="H223" s="3"/>
+      <c r="I223" s="3"/>
+      <c r="J223" s="3"/>
+      <c r="K223" s="3"/>
+      <c r="L223" s="3"/>
+      <c r="M223" s="3"/>
+      <c r="N223" s="3"/>
+      <c r="O223" s="3"/>
+      <c r="P223" s="3"/>
+      <c r="Q223" s="3"/>
+      <c r="R223" s="3"/>
+      <c r="S223" s="3"/>
+      <c r="T223" s="3"/>
+      <c r="U223" s="3"/>
+      <c r="V223" s="3"/>
+      <c r="W223" s="3"/>
+    </row>
+    <row r="224" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A224" s="5">
+        <v>221</v>
+      </c>
+      <c r="B224" s="6"/>
+      <c r="C224" s="3"/>
+      <c r="D224" s="3"/>
+      <c r="E224" s="3"/>
+      <c r="F224" s="3"/>
+      <c r="G224" s="3"/>
+      <c r="H224" s="3"/>
+      <c r="I224" s="3"/>
+      <c r="J224" s="3"/>
+      <c r="K224" s="3"/>
+      <c r="L224" s="3"/>
+      <c r="M224" s="3"/>
+      <c r="N224" s="3"/>
+      <c r="O224" s="3"/>
+      <c r="P224" s="3"/>
+      <c r="Q224" s="3"/>
+      <c r="R224" s="3"/>
+      <c r="S224" s="3"/>
+      <c r="T224" s="3"/>
+      <c r="U224" s="3"/>
+      <c r="V224" s="3"/>
+      <c r="W224" s="3"/>
+    </row>
+    <row r="225" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A225" s="5">
+        <v>222</v>
+      </c>
+      <c r="B225" s="6"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3"/>
+      <c r="E225" s="3"/>
+      <c r="F225" s="3"/>
+      <c r="G225" s="3"/>
+      <c r="H225" s="3"/>
+      <c r="I225" s="3"/>
+      <c r="J225" s="3"/>
+      <c r="K225" s="3"/>
+      <c r="L225" s="3"/>
+      <c r="M225" s="3"/>
+      <c r="N225" s="3"/>
+      <c r="O225" s="3"/>
+      <c r="P225" s="3"/>
+      <c r="Q225" s="3"/>
+      <c r="R225" s="3"/>
+      <c r="S225" s="3"/>
+      <c r="T225" s="3"/>
+      <c r="U225" s="3"/>
+      <c r="V225" s="3"/>
+      <c r="W225" s="3"/>
+    </row>
+    <row r="226" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A226" s="5">
+        <v>223</v>
+      </c>
+      <c r="B226" s="6"/>
+      <c r="C226" s="3"/>
+      <c r="D226" s="3"/>
+      <c r="E226" s="3"/>
+      <c r="F226" s="3"/>
+      <c r="G226" s="3"/>
+      <c r="H226" s="3"/>
+      <c r="I226" s="3"/>
+      <c r="J226" s="3"/>
+      <c r="K226" s="3"/>
+      <c r="L226" s="3"/>
+      <c r="M226" s="3"/>
+      <c r="N226" s="3"/>
+      <c r="O226" s="3"/>
+      <c r="P226" s="3"/>
+      <c r="Q226" s="3"/>
+      <c r="R226" s="3"/>
+      <c r="S226" s="3"/>
+      <c r="T226" s="3"/>
+      <c r="U226" s="3"/>
+      <c r="V226" s="3"/>
+      <c r="W226" s="3"/>
+    </row>
+    <row r="227" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A227" s="5">
+        <v>224</v>
+      </c>
+      <c r="B227" s="6"/>
+      <c r="C227" s="3"/>
+      <c r="D227" s="3"/>
+      <c r="E227" s="3"/>
+      <c r="F227" s="3"/>
+      <c r="G227" s="3"/>
+      <c r="H227" s="3"/>
+      <c r="I227" s="3"/>
+      <c r="J227" s="3"/>
+      <c r="K227" s="3"/>
+      <c r="L227" s="3"/>
+      <c r="M227" s="3"/>
+      <c r="N227" s="3"/>
+      <c r="O227" s="3"/>
+      <c r="P227" s="3"/>
+      <c r="Q227" s="3"/>
+      <c r="R227" s="3"/>
+      <c r="S227" s="3"/>
+      <c r="T227" s="3"/>
+      <c r="U227" s="3"/>
+      <c r="V227" s="3"/>
+      <c r="W227" s="3"/>
+    </row>
+    <row r="228" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A228" s="5">
+        <v>225</v>
+      </c>
+      <c r="B228" s="6"/>
+      <c r="C228" s="3"/>
+      <c r="D228" s="3"/>
+      <c r="E228" s="3"/>
+      <c r="F228" s="3"/>
+      <c r="G228" s="3"/>
+      <c r="H228" s="3"/>
+      <c r="I228" s="3"/>
+      <c r="J228" s="3"/>
+      <c r="K228" s="3"/>
+      <c r="L228" s="3"/>
+      <c r="M228" s="3"/>
+      <c r="N228" s="3"/>
+      <c r="O228" s="3"/>
+      <c r="P228" s="3"/>
+      <c r="Q228" s="3"/>
+      <c r="R228" s="3"/>
+      <c r="S228" s="3"/>
+      <c r="T228" s="3"/>
+      <c r="U228" s="3"/>
+      <c r="V228" s="3"/>
+      <c r="W228" s="3"/>
+    </row>
+    <row r="229" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A229" s="5">
+        <v>226</v>
+      </c>
+      <c r="B229" s="6"/>
+      <c r="C229" s="3"/>
+      <c r="D229" s="3"/>
+      <c r="E229" s="3"/>
+      <c r="F229" s="3"/>
+      <c r="G229" s="3"/>
+      <c r="H229" s="3"/>
+      <c r="I229" s="3"/>
+      <c r="J229" s="3"/>
+      <c r="K229" s="3"/>
+      <c r="L229" s="3"/>
+      <c r="M229" s="3"/>
+      <c r="N229" s="3"/>
+      <c r="O229" s="3"/>
+      <c r="P229" s="3"/>
+      <c r="Q229" s="3"/>
+      <c r="R229" s="3"/>
+      <c r="S229" s="3"/>
+      <c r="T229" s="3"/>
+      <c r="U229" s="3"/>
+      <c r="V229" s="3"/>
+      <c r="W229" s="3"/>
+    </row>
+    <row r="230" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A230" s="5">
+        <v>227</v>
+      </c>
+      <c r="B230" s="6"/>
+      <c r="C230" s="3"/>
+      <c r="D230" s="3"/>
+      <c r="E230" s="3"/>
+      <c r="F230" s="3"/>
+      <c r="G230" s="3"/>
+      <c r="H230" s="3"/>
+      <c r="I230" s="3"/>
+      <c r="J230" s="3"/>
+      <c r="K230" s="3"/>
+      <c r="L230" s="3"/>
+      <c r="M230" s="3"/>
+      <c r="N230" s="3"/>
+      <c r="O230" s="3"/>
+      <c r="P230" s="3"/>
+      <c r="Q230" s="3"/>
+      <c r="R230" s="3"/>
+      <c r="S230" s="3"/>
+      <c r="T230" s="3"/>
+      <c r="U230" s="3"/>
+      <c r="V230" s="3"/>
+      <c r="W230" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="A1:A3"/>
     <mergeCell ref="C1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:W172" xr:uid="{C452CDD0-B3A9-419A-AD4E-0E5CE327C346}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C230 D4:D163 D181:D230 E4:W230" xr:uid="{C452CDD0-B3A9-419A-AD4E-0E5CE327C346}">
       <formula1>"〇,×,△"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D164:D180" xr:uid="{E47C5A29-770A-4FF4-AE4B-E53AB5761727}">
+      <formula1>",1,2,3,4,5,6,7,8,9,10,△,×"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
